--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -4336,17 +4336,13 @@
         <v>5.714999999999996</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
@@ -4381,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4422,309 +4412,265 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>62794.3667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.604999999999997</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18972.5409</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.609999999999997</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12420.6859</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.609999999999998</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>157152.8642</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.609999999999998</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>157152.8642</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.609999999999998</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4517.4215</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.609999999999998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F122" t="n">
+        <v>139549.6728</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.589999999999998</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K122" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F116" t="n">
-        <v>62794.3667</v>
-      </c>
-      <c r="G116" t="n">
-        <v>5.604999999999997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F117" t="n">
-        <v>18972.5409</v>
-      </c>
-      <c r="G117" t="n">
-        <v>5.609999999999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F118" t="n">
-        <v>12420.6859</v>
-      </c>
-      <c r="G118" t="n">
-        <v>5.609999999999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F119" t="n">
-        <v>157152.8642</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5.609999999999998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E120" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F120" t="n">
-        <v>157152.8642</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5.609999999999998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4517.4215</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5.609999999999998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F122" t="n">
-        <v>139549.6728</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5.589999999999998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4758,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>5.67</v>
+        <v>5.57</v>
       </c>
       <c r="K123" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4795,16 +4741,14 @@
         <v>5.634999999999998</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4838,16 +4782,14 @@
         <v>5.644999999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4881,16 +4823,14 @@
         <v>5.724999999999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5.76</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4924,16 +4864,14 @@
         <v>5.774999999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5.77</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4974,7 +4912,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5015,7 +4953,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5056,7 +4994,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5097,7 +5035,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5138,7 +5076,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5179,7 +5117,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5220,7 +5158,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5261,7 +5199,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5298,19 +5236,19 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>1</v>
+        <v>1.06451871657754</v>
       </c>
     </row>
     <row r="137">
@@ -5339,17 +5277,11 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5380,17 +5312,11 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5421,17 +5347,11 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5462,17 +5382,11 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5503,17 +5417,11 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5547,14 +5455,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5525,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +5560,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5595,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5752,14 +5630,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5665,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5700,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5875,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5805,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5840,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5875,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6080,14 +5910,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +5945,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5980,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6203,14 +6015,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +6085,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +6120,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +6155,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6443,22 +6219,14 @@
         <v>5.605</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6486,22 +6254,14 @@
         <v>5.635</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6529,22 +6289,14 @@
         <v>5.649999999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6572,22 +6324,14 @@
         <v>5.664999999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6615,22 +6359,14 @@
         <v>5.685</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K168" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6658,22 +6394,14 @@
         <v>5.705</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6701,22 +6429,14 @@
         <v>5.664999999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K170" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6744,22 +6464,14 @@
         <v>5.594999999999999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6787,22 +6499,14 @@
         <v>5.569999999999999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6830,22 +6534,14 @@
         <v>5.569999999999999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6873,22 +6569,14 @@
         <v>5.619999999999998</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6922,14 +6610,12 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.79</v>
-      </c>
+        <v>5.68</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -6967,9 +6653,7 @@
       <c r="J176" t="n">
         <v>5.7</v>
       </c>
-      <c r="K176" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,11 +6692,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.79</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,17 +6727,13 @@
         <v>5.594999999999999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,17 +6766,13 @@
         <v>5.589999999999999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K179" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,17 +6805,13 @@
         <v>5.609999999999999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K180" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,17 +6844,13 @@
         <v>5.684999999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,17 +6883,13 @@
         <v>5.774999999999998</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,17 +6922,13 @@
         <v>5.759999999999998</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,9 +6967,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,9 +7006,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,9 +7045,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,9 +7084,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7467,17 +7117,13 @@
         <v>5.724999999999997</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K188" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7516,9 +7162,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +7201,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,17 +7234,13 @@
         <v>5.719999999999996</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K191" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +7279,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,9 +7318,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,9 +7357,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,9 +7396,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,9 +7435,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,17 +7507,13 @@
         <v>5.739999999999997</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="K198" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7552,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,9 +7591,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,9 +7630,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,9 +7669,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7708,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,9 +7747,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,9 +7786,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,9 +7825,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,9 +7903,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,9 +7942,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,9 +7981,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,9 +8020,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,17 +8053,13 @@
         <v>5.679999999999998</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K212" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8506,9 +8098,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,17 +8131,13 @@
         <v>5.564999999999998</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K214" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,17 +8170,13 @@
         <v>5.574999999999998</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K215" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,17 +8209,13 @@
         <v>5.589999999999998</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K216" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8670,17 +8248,13 @@
         <v>5.594999999999997</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K217" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,17 +8287,13 @@
         <v>5.639999999999997</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K218" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,17 +8326,13 @@
         <v>5.684999999999998</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K219" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,17 +8365,13 @@
         <v>5.679999999999998</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K220" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8842,17 +8404,13 @@
         <v>5.644999999999998</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K221" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8885,17 +8443,13 @@
         <v>5.619999999999998</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K222" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,17 +8482,13 @@
         <v>5.599999999999998</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K223" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,17 +8521,13 @@
         <v>5.579999999999997</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K224" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,17 +8560,13 @@
         <v>5.604999999999996</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K225" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,17 +8599,13 @@
         <v>5.624999999999996</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K226" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9100,17 +8638,13 @@
         <v>5.619999999999996</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K227" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,17 +8677,13 @@
         <v>5.619999999999996</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K228" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,17 +8716,13 @@
         <v>5.604999999999995</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K229" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,17 +8755,13 @@
         <v>5.579999999999995</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K230" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D2" t="n">
         <v>5.97</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.06</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="F2" t="n">
-        <v>2155301.567230384</v>
+        <v>265269.1413</v>
       </c>
       <c r="G2" t="n">
-        <v>5.989999999999991</v>
+        <v>5.6915</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="C3" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D3" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="E3" t="n">
         <v>5.97</v>
       </c>
       <c r="F3" t="n">
-        <v>93291.80286280991</v>
+        <v>2155301.567230384</v>
       </c>
       <c r="G3" t="n">
-        <v>6.00499999999999</v>
+        <v>5.701833333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>5.97</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.91</v>
-      </c>
       <c r="D4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E4" t="n">
         <v>5.97</v>
       </c>
-      <c r="E4" t="n">
-        <v>5.91</v>
-      </c>
       <c r="F4" t="n">
-        <v>3748.7227</v>
+        <v>93291.80286280991</v>
       </c>
       <c r="G4" t="n">
-        <v>5.939999999999991</v>
+        <v>5.712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C5" t="n">
         <v>5.91</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.85</v>
-      </c>
       <c r="D5" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.91</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F5" t="n">
-        <v>96918.2335</v>
+        <v>3748.7227</v>
       </c>
       <c r="G5" t="n">
-        <v>5.879999999999992</v>
+        <v>5.721166666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.85</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.8</v>
-      </c>
       <c r="D6" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E6" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="F6" t="n">
-        <v>471636.8029</v>
+        <v>96918.2335</v>
       </c>
       <c r="G6" t="n">
-        <v>5.824999999999992</v>
+        <v>5.7295</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E7" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="F7" t="n">
-        <v>180645.1081</v>
+        <v>471636.8029</v>
       </c>
       <c r="G7" t="n">
-        <v>5.819999999999992</v>
+        <v>5.738</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>5.84</v>
       </c>
       <c r="C8" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D8" t="n">
         <v>5.84</v>
       </c>
       <c r="E8" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="F8" t="n">
-        <v>68572.6905</v>
+        <v>180645.1081</v>
       </c>
       <c r="G8" t="n">
-        <v>5.824999999999992</v>
+        <v>5.747333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C9" t="n">
         <v>5.81</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.77</v>
-      </c>
       <c r="D9" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E9" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F9" t="n">
-        <v>291352.0858</v>
+        <v>68572.6905</v>
       </c>
       <c r="G9" t="n">
-        <v>5.789999999999992</v>
+        <v>5.756166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>5.81</v>
       </c>
       <c r="C10" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="D10" t="n">
         <v>5.81</v>
       </c>
       <c r="E10" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="F10" t="n">
-        <v>78096.63310000001</v>
+        <v>291352.0858</v>
       </c>
       <c r="G10" t="n">
-        <v>5.789999999999992</v>
+        <v>5.763666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="C11" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D11" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E11" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F11" t="n">
-        <v>344</v>
+        <v>78096.63310000001</v>
       </c>
       <c r="G11" t="n">
-        <v>5.814999999999992</v>
+        <v>5.7725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="C12" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D12" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E12" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="F12" t="n">
-        <v>123334.3569</v>
+        <v>344</v>
       </c>
       <c r="G12" t="n">
-        <v>5.854999999999993</v>
+        <v>5.781666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="C13" t="n">
-        <v>6.1</v>
+        <v>5.89</v>
       </c>
       <c r="D13" t="n">
-        <v>6.1</v>
+        <v>5.89</v>
       </c>
       <c r="E13" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="F13" t="n">
-        <v>933872.008</v>
+        <v>123334.3569</v>
       </c>
       <c r="G13" t="n">
-        <v>5.994999999999994</v>
+        <v>5.792000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C14" t="n">
         <v>6.1</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.93</v>
-      </c>
       <c r="D14" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="E14" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="F14" t="n">
-        <v>1004546.6113</v>
+        <v>933872.008</v>
       </c>
       <c r="G14" t="n">
-        <v>6.014999999999993</v>
+        <v>5.805666666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="C15" t="n">
-        <v>6.03</v>
+        <v>5.93</v>
       </c>
       <c r="D15" t="n">
-        <v>6.09</v>
+        <v>6.13</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="F15" t="n">
-        <v>370709.4071</v>
+        <v>1004546.6113</v>
       </c>
       <c r="G15" t="n">
-        <v>5.979999999999994</v>
+        <v>5.816500000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C16" t="n">
         <v>6.03</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.06</v>
       </c>
       <c r="D16" t="n">
         <v>6.09</v>
       </c>
       <c r="E16" t="n">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>867302.0906</v>
+        <v>370709.4071</v>
       </c>
       <c r="G16" t="n">
-        <v>6.044999999999995</v>
+        <v>5.828500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C17" t="n">
         <v>6.06</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.15</v>
-      </c>
       <c r="D17" t="n">
-        <v>6.15</v>
+        <v>6.09</v>
       </c>
       <c r="E17" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="F17" t="n">
-        <v>1254416.9702</v>
+        <v>867302.0906</v>
       </c>
       <c r="G17" t="n">
-        <v>6.104999999999993</v>
+        <v>5.838666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C18" t="n">
         <v>6.15</v>
       </c>
-      <c r="C18" t="n">
-        <v>6.18</v>
-      </c>
       <c r="D18" t="n">
-        <v>6.18</v>
+        <v>6.15</v>
       </c>
       <c r="E18" t="n">
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="F18" t="n">
-        <v>505437.3132</v>
+        <v>1254416.9702</v>
       </c>
       <c r="G18" t="n">
-        <v>6.164999999999994</v>
+        <v>5.849166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="C19" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D19" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E19" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="F19" t="n">
-        <v>651058.8092500075</v>
+        <v>505437.3132</v>
       </c>
       <c r="G19" t="n">
-        <v>6.134999999999994</v>
+        <v>5.860000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="C20" t="n">
-        <v>5.93</v>
+        <v>6.09</v>
       </c>
       <c r="D20" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E20" t="n">
         <v>6.09</v>
       </c>
-      <c r="E20" t="n">
-        <v>5.93</v>
-      </c>
       <c r="F20" t="n">
-        <v>50174</v>
+        <v>651058.8092500075</v>
       </c>
       <c r="G20" t="n">
-        <v>6.009999999999994</v>
+        <v>5.866500000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
       <c r="C21" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D21" t="n">
-        <v>5.97</v>
+        <v>6.09</v>
       </c>
       <c r="E21" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F21" t="n">
-        <v>37554.9096</v>
+        <v>50174</v>
       </c>
       <c r="G21" t="n">
-        <v>5.939999999999994</v>
+        <v>5.869833333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="C22" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="D22" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="E22" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="F22" t="n">
-        <v>53706.9818</v>
+        <v>37554.9096</v>
       </c>
       <c r="G22" t="n">
-        <v>5.999999999999995</v>
+        <v>5.870833333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.1</v>
+        <v>6.07</v>
       </c>
       <c r="C23" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D23" t="n">
-        <v>6.12</v>
+        <v>6.07</v>
       </c>
       <c r="E23" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F23" t="n">
-        <v>181956.0674</v>
+        <v>53706.9818</v>
       </c>
       <c r="G23" t="n">
-        <v>6.044999999999995</v>
+        <v>5.872833333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C24" t="n">
         <v>6.04</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.97</v>
-      </c>
       <c r="D24" t="n">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="E24" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="F24" t="n">
-        <v>93849.5064</v>
+        <v>181956.0674</v>
       </c>
       <c r="G24" t="n">
-        <v>6.004999999999994</v>
+        <v>5.876500000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="C25" t="n">
         <v>5.97</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E25" t="n">
         <v>5.97</v>
       </c>
       <c r="F25" t="n">
-        <v>112433.7364</v>
+        <v>93849.5064</v>
       </c>
       <c r="G25" t="n">
-        <v>5.969999999999994</v>
+        <v>5.87866666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>5.97</v>
       </c>
-      <c r="C26" t="n">
-        <v>5.92</v>
-      </c>
       <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
         <v>5.97</v>
       </c>
-      <c r="E26" t="n">
-        <v>5.92</v>
-      </c>
       <c r="F26" t="n">
-        <v>135877.8728</v>
+        <v>112433.7364</v>
       </c>
       <c r="G26" t="n">
-        <v>5.944999999999993</v>
+        <v>5.882166666666671</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C27" t="n">
         <v>5.92</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.86</v>
-      </c>
       <c r="D27" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E27" t="n">
         <v>5.92</v>
       </c>
-      <c r="E27" t="n">
-        <v>5.85</v>
-      </c>
       <c r="F27" t="n">
-        <v>14496.9562</v>
+        <v>135877.8728</v>
       </c>
       <c r="G27" t="n">
-        <v>5.889999999999993</v>
+        <v>5.885000000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.84</v>
+        <v>5.92</v>
       </c>
       <c r="C28" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D28" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E28" t="n">
         <v>5.85</v>
       </c>
-      <c r="E28" t="n">
-        <v>5.8</v>
-      </c>
       <c r="F28" t="n">
-        <v>656544.623</v>
+        <v>14496.9562</v>
       </c>
       <c r="G28" t="n">
-        <v>5.829999999999994</v>
+        <v>5.886833333333338</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.8</v>
       </c>
-      <c r="C29" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D29" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="E29" t="n">
         <v>5.8</v>
       </c>
       <c r="F29" t="n">
-        <v>171965.0224</v>
+        <v>656544.623</v>
       </c>
       <c r="G29" t="n">
-        <v>5.804999999999994</v>
+        <v>5.888333333333338</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="C30" t="n">
         <v>5.81</v>
       </c>
       <c r="D30" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E30" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F30" t="n">
-        <v>7646.4684</v>
+        <v>171965.0224</v>
       </c>
       <c r="G30" t="n">
-        <v>5.809999999999993</v>
+        <v>5.892166666666672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="C31" t="n">
         <v>5.81</v>
       </c>
       <c r="D31" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="E31" t="n">
         <v>5.81</v>
       </c>
       <c r="F31" t="n">
-        <v>5812.9598</v>
+        <v>7646.4684</v>
       </c>
       <c r="G31" t="n">
-        <v>5.809999999999993</v>
+        <v>5.896666666666672</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="C32" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D32" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E32" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F32" t="n">
-        <v>111724.8647</v>
+        <v>5812.9598</v>
       </c>
       <c r="G32" t="n">
-        <v>5.814999999999994</v>
+        <v>5.900833333333338</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="C33" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="D33" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="E33" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="F33" t="n">
-        <v>96</v>
+        <v>111724.8647</v>
       </c>
       <c r="G33" t="n">
-        <v>5.879999999999995</v>
+        <v>5.900833333333338</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="C34" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="D34" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="E34" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="F34" t="n">
         <v>96</v>
       </c>
       <c r="G34" t="n">
-        <v>5.879999999999995</v>
+        <v>5.906833333333338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>5.82</v>
       </c>
       <c r="F35" t="n">
-        <v>4102.0852</v>
+        <v>96</v>
       </c>
       <c r="G35" t="n">
-        <v>5.819999999999995</v>
+        <v>5.910166666666671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="C36" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="D36" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="E36" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="F36" t="n">
-        <v>2545.7873</v>
+        <v>4102.0852</v>
       </c>
       <c r="G36" t="n">
-        <v>5.834999999999994</v>
+        <v>5.912166666666672</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>5.85</v>
       </c>
       <c r="F37" t="n">
-        <v>17726.9119</v>
+        <v>2545.7873</v>
       </c>
       <c r="G37" t="n">
-        <v>5.849999999999994</v>
+        <v>5.91133333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>5.85</v>
       </c>
       <c r="F38" t="n">
-        <v>999.7599</v>
+        <v>17726.9119</v>
       </c>
       <c r="G38" t="n">
-        <v>5.849999999999995</v>
+        <v>5.912000000000006</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>5.85</v>
       </c>
       <c r="C39" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="D39" t="n">
         <v>5.85</v>
       </c>
       <c r="E39" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>92242.7939</v>
+        <v>999.7599</v>
       </c>
       <c r="G39" t="n">
-        <v>5.829999999999996</v>
+        <v>5.913000000000006</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="C40" t="n">
-        <v>5.93</v>
+        <v>5.81</v>
       </c>
       <c r="D40" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="E40" t="n">
-        <v>5.93</v>
+        <v>5.81</v>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>92242.7939</v>
       </c>
       <c r="G40" t="n">
-        <v>5.869999999999995</v>
+        <v>5.910166666666672</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>5.93</v>
       </c>
       <c r="C41" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D41" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E41" t="n">
         <v>5.93</v>
       </c>
       <c r="F41" t="n">
-        <v>197461.1269</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>5.989999999999995</v>
+        <v>5.909500000000006</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="C42" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="D42" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="E42" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="F42" t="n">
-        <v>72911.6691</v>
+        <v>197461.1269</v>
       </c>
       <c r="G42" t="n">
-        <v>6.019999999999996</v>
+        <v>5.910833333333339</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.87</v>
+        <v>5.99</v>
       </c>
       <c r="C43" t="n">
-        <v>5.87</v>
+        <v>5.99</v>
       </c>
       <c r="D43" t="n">
-        <v>5.87</v>
+        <v>5.99</v>
       </c>
       <c r="E43" t="n">
-        <v>5.87</v>
+        <v>5.98</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.7457</v>
+        <v>72911.6691</v>
       </c>
       <c r="G43" t="n">
-        <v>5.929999999999996</v>
+        <v>5.911500000000006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C44" t="n">
-        <v>6.03</v>
+        <v>5.87</v>
       </c>
       <c r="D44" t="n">
-        <v>6.03</v>
+        <v>5.87</v>
       </c>
       <c r="E44" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F44" t="n">
-        <v>16317.904</v>
+        <v>3344.7457</v>
       </c>
       <c r="G44" t="n">
-        <v>5.949999999999997</v>
+        <v>5.911166666666673</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C45" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="D45" t="n">
-        <v>5.88</v>
+        <v>6.03</v>
       </c>
       <c r="E45" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F45" t="n">
-        <v>143887.973</v>
+        <v>16317.904</v>
       </c>
       <c r="G45" t="n">
-        <v>5.949999999999996</v>
+        <v>5.912666666666672</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.98</v>
+        <v>5.88</v>
       </c>
       <c r="C46" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="D46" t="n">
-        <v>5.98</v>
+        <v>5.88</v>
       </c>
       <c r="E46" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="F46" t="n">
-        <v>12690.3226</v>
+        <v>143887.973</v>
       </c>
       <c r="G46" t="n">
-        <v>5.924999999999995</v>
+        <v>5.911500000000006</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C47" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="D47" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="E47" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="F47" t="n">
-        <v>55963.1906</v>
+        <v>12690.3226</v>
       </c>
       <c r="G47" t="n">
-        <v>5.999999999999995</v>
+        <v>5.914000000000006</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="C48" t="n">
-        <v>5.89</v>
+        <v>6.02</v>
       </c>
       <c r="D48" t="n">
         <v>6.02</v>
       </c>
       <c r="E48" t="n">
-        <v>5.89</v>
+        <v>5.97</v>
       </c>
       <c r="F48" t="n">
-        <v>107811.0122</v>
+        <v>55963.1906</v>
       </c>
       <c r="G48" t="n">
-        <v>5.954999999999995</v>
+        <v>5.915333333333339</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.91</v>
+        <v>6.01</v>
       </c>
       <c r="C49" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="D49" t="n">
-        <v>5.91</v>
+        <v>6.02</v>
       </c>
       <c r="E49" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F49" t="n">
-        <v>106656.238</v>
+        <v>107811.0122</v>
       </c>
       <c r="G49" t="n">
-        <v>5.894999999999994</v>
+        <v>5.914500000000006</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C50" t="n">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="D50" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="E50" t="n">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="F50" t="n">
-        <v>996</v>
+        <v>106656.238</v>
       </c>
       <c r="G50" t="n">
-        <v>5.939999999999994</v>
+        <v>5.915333333333338</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="C51" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="D51" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="E51" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="F51" t="n">
-        <v>96</v>
+        <v>996</v>
       </c>
       <c r="G51" t="n">
-        <v>5.964999999999994</v>
+        <v>5.916500000000005</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="C52" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D52" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E52" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="F52" t="n">
         <v>96</v>
       </c>
       <c r="G52" t="n">
-        <v>5.944999999999993</v>
+        <v>5.918333333333338</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>5.94</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="E53" t="n">
         <v>5.94</v>
       </c>
       <c r="F53" t="n">
-        <v>414625.9944</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
-        <v>5.969999999999994</v>
+        <v>5.917500000000005</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="C54" t="n">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F54" t="n">
-        <v>249252.6193</v>
+        <v>414625.9944</v>
       </c>
       <c r="G54" t="n">
-        <v>5.974999999999993</v>
+        <v>5.917833333333338</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="C55" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="D55" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="E55" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="F55" t="n">
-        <v>15053.8471</v>
+        <v>249252.6193</v>
       </c>
       <c r="G55" t="n">
-        <v>5.914999999999992</v>
+        <v>5.918000000000005</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C56" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D56" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E56" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F56" t="n">
-        <v>4547.7765</v>
+        <v>15053.8471</v>
       </c>
       <c r="G56" t="n">
-        <v>5.874999999999993</v>
+        <v>5.918500000000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C57" t="n">
         <v>5.87</v>
       </c>
-      <c r="C57" t="n">
-        <v>5.86</v>
-      </c>
       <c r="D57" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E57" t="n">
         <v>5.87</v>
       </c>
-      <c r="E57" t="n">
-        <v>5.86</v>
-      </c>
       <c r="F57" t="n">
-        <v>208697.5981</v>
+        <v>4547.7765</v>
       </c>
       <c r="G57" t="n">
-        <v>5.864999999999993</v>
+        <v>5.919000000000005</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C58" t="n">
         <v>5.86</v>
       </c>
       <c r="D58" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E58" t="n">
         <v>5.86</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>208697.5981</v>
       </c>
       <c r="G58" t="n">
-        <v>5.859999999999992</v>
+        <v>5.919333333333339</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>5.86</v>
       </c>
       <c r="C59" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D59" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="E59" t="n">
         <v>5.86</v>
       </c>
       <c r="F59" t="n">
-        <v>6100</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>5.874999999999993</v>
+        <v>5.920333333333338</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="C60" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="D60" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="E60" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="F60" t="n">
-        <v>15148.4633</v>
+        <v>6100</v>
       </c>
       <c r="G60" t="n">
-        <v>5.904999999999994</v>
+        <v>5.921166666666672</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>5.92</v>
       </c>
       <c r="F61" t="n">
-        <v>190.8605</v>
+        <v>15148.4633</v>
       </c>
       <c r="G61" t="n">
-        <v>5.919999999999995</v>
+        <v>5.921666666666672</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="C62" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="D62" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="E62" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="F62" t="n">
         <v>190.8605</v>
       </c>
       <c r="G62" t="n">
-        <v>5.904999999999995</v>
+        <v>5.921333333333339</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="C63" t="n">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="D63" t="n">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="E63" t="n">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="F63" t="n">
-        <v>2195</v>
+        <v>190.8605</v>
       </c>
       <c r="G63" t="n">
-        <v>5.939999999999995</v>
+        <v>5.918833333333339</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>5.99</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E64" t="n">
         <v>5.99</v>
       </c>
       <c r="F64" t="n">
-        <v>19995.51104</v>
+        <v>2195</v>
       </c>
       <c r="G64" t="n">
-        <v>5.994999999999994</v>
+        <v>5.919166666666672</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C65" t="n">
         <v>6</v>
@@ -2647,13 +2647,13 @@
         <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>19995.51104</v>
       </c>
       <c r="G65" t="n">
-        <v>5.999999999999994</v>
+        <v>5.920666666666672</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
         <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>205513.9538</v>
+        <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>5.999999999999993</v>
+        <v>5.923166666666671</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.98</v>
+        <v>6.01</v>
       </c>
       <c r="E67" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>162313.6898</v>
+        <v>205513.9538</v>
       </c>
       <c r="G67" t="n">
-        <v>5.984999999999992</v>
+        <v>5.926500000000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C68" t="n">
         <v>5.97</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D68" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E68" t="n">
         <v>5.97</v>
       </c>
-      <c r="E68" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F68" t="n">
-        <v>81028.4611</v>
+        <v>162313.6898</v>
       </c>
       <c r="G68" t="n">
-        <v>5.889999999999992</v>
+        <v>5.928666666666672</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C69" t="n">
-        <v>5.96</v>
+        <v>5.81</v>
       </c>
       <c r="D69" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E69" t="n">
-        <v>5.96</v>
+        <v>5.81</v>
       </c>
       <c r="F69" t="n">
-        <v>157.7281</v>
+        <v>81028.4611</v>
       </c>
       <c r="G69" t="n">
-        <v>5.884999999999993</v>
+        <v>5.928666666666672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="C70" t="n">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="D70" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="E70" t="n">
-        <v>5.81</v>
+        <v>5.96</v>
       </c>
       <c r="F70" t="n">
-        <v>180</v>
+        <v>157.7281</v>
       </c>
       <c r="G70" t="n">
-        <v>5.884999999999993</v>
+        <v>5.931833333333339</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="C71" t="n">
-        <v>5.95</v>
+        <v>5.81</v>
       </c>
       <c r="D71" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E71" t="n">
-        <v>5.95</v>
+        <v>5.81</v>
       </c>
       <c r="F71" t="n">
-        <v>12082.4342</v>
+        <v>180</v>
       </c>
       <c r="G71" t="n">
-        <v>5.879999999999992</v>
+        <v>5.931833333333339</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>5.95</v>
       </c>
       <c r="F72" t="n">
-        <v>185.4204</v>
+        <v>12082.4342</v>
       </c>
       <c r="G72" t="n">
-        <v>5.949999999999992</v>
+        <v>5.934000000000005</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="C73" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="D73" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="E73" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="F73" t="n">
         <v>185.4204</v>
       </c>
       <c r="G73" t="n">
-        <v>5.879999999999992</v>
+        <v>5.935000000000005</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>5.81</v>
       </c>
       <c r="C74" t="n">
-        <v>5.94</v>
+        <v>5.81</v>
       </c>
       <c r="D74" t="n">
-        <v>5.94</v>
+        <v>5.81</v>
       </c>
       <c r="E74" t="n">
         <v>5.81</v>
       </c>
       <c r="F74" t="n">
-        <v>26646.0995</v>
+        <v>185.4204</v>
       </c>
       <c r="G74" t="n">
-        <v>5.874999999999993</v>
+        <v>5.930166666666671</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.84</v>
+        <v>5.81</v>
       </c>
       <c r="C75" t="n">
-        <v>5.84</v>
+        <v>5.94</v>
       </c>
       <c r="D75" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="E75" t="n">
-        <v>5.84</v>
+        <v>5.81</v>
       </c>
       <c r="F75" t="n">
-        <v>73079.7429</v>
+        <v>26646.0995</v>
       </c>
       <c r="G75" t="n">
-        <v>5.889999999999993</v>
+        <v>5.930333333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C76" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D76" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="E76" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="F76" t="n">
-        <v>1240.5106</v>
+        <v>73079.7429</v>
       </c>
       <c r="G76" t="n">
-        <v>5.824999999999992</v>
+        <v>5.927166666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>5.81</v>
       </c>
       <c r="C77" t="n">
-        <v>5.94</v>
+        <v>5.81</v>
       </c>
       <c r="D77" t="n">
-        <v>5.94</v>
+        <v>5.81</v>
       </c>
       <c r="E77" t="n">
         <v>5.81</v>
       </c>
       <c r="F77" t="n">
-        <v>42888</v>
+        <v>1240.5106</v>
       </c>
       <c r="G77" t="n">
-        <v>5.874999999999993</v>
+        <v>5.923000000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C78" t="n">
         <v>5.94</v>
       </c>
-      <c r="C78" t="n">
-        <v>5.95</v>
-      </c>
       <c r="D78" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E78" t="n">
-        <v>5.94</v>
+        <v>5.81</v>
       </c>
       <c r="F78" t="n">
-        <v>60009</v>
+        <v>42888</v>
       </c>
       <c r="G78" t="n">
-        <v>5.944999999999993</v>
+        <v>5.919500000000005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C79" t="n">
         <v>5.95</v>
       </c>
-      <c r="C79" t="n">
-        <v>5.98</v>
-      </c>
       <c r="D79" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="E79" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F79" t="n">
-        <v>468858.1723</v>
+        <v>60009</v>
       </c>
       <c r="G79" t="n">
-        <v>5.964999999999993</v>
+        <v>5.915666666666671</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="C80" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="D80" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E80" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="F80" t="n">
-        <v>27956.44891122278</v>
+        <v>468858.1723</v>
       </c>
       <c r="G80" t="n">
-        <v>5.974999999999993</v>
+        <v>5.913833333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C81" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="D81" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E81" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F81" t="n">
-        <v>61018.515</v>
+        <v>27956.44891122278</v>
       </c>
       <c r="G81" t="n">
-        <v>5.964999999999993</v>
+        <v>5.914500000000006</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="C82" t="n">
-        <v>5.79</v>
+        <v>5.96</v>
       </c>
       <c r="D82" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="E82" t="n">
-        <v>5.79</v>
+        <v>5.96</v>
       </c>
       <c r="F82" t="n">
-        <v>290942.1942</v>
+        <v>61018.515</v>
       </c>
       <c r="G82" t="n">
-        <v>5.874999999999993</v>
+        <v>5.914666666666673</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>5.97</v>
       </c>
       <c r="C83" t="n">
-        <v>5.97</v>
+        <v>5.79</v>
       </c>
       <c r="D83" t="n">
         <v>5.97</v>
       </c>
       <c r="E83" t="n">
-        <v>5.97</v>
+        <v>5.79</v>
       </c>
       <c r="F83" t="n">
-        <v>88</v>
+        <v>290942.1942</v>
       </c>
       <c r="G83" t="n">
-        <v>5.879999999999992</v>
+        <v>5.910333333333339</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="C84" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="D84" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="E84" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="F84" t="n">
-        <v>20204.8736</v>
+        <v>88</v>
       </c>
       <c r="G84" t="n">
-        <v>5.959999999999992</v>
+        <v>5.909166666666673</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="C85" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="D85" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="E85" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="F85" t="n">
-        <v>55147.4646006689</v>
+        <v>20204.8736</v>
       </c>
       <c r="G85" t="n">
-        <v>5.964999999999993</v>
+        <v>5.908833333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C86" t="n">
         <v>5.98</v>
       </c>
-      <c r="C86" t="n">
-        <v>5.99</v>
-      </c>
       <c r="D86" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="E86" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="F86" t="n">
-        <v>90221.62703405565</v>
+        <v>55147.4646006689</v>
       </c>
       <c r="G86" t="n">
-        <v>5.984999999999994</v>
+        <v>5.909000000000005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.99</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.81</v>
       </c>
       <c r="D87" t="n">
         <v>5.99</v>
       </c>
       <c r="E87" t="n">
-        <v>5.81</v>
+        <v>5.98</v>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>90221.62703405565</v>
       </c>
       <c r="G87" t="n">
-        <v>5.899999999999993</v>
+        <v>5.910166666666671</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>5.99</v>
       </c>
       <c r="C88" t="n">
-        <v>5.99</v>
+        <v>5.81</v>
       </c>
       <c r="D88" t="n">
         <v>5.99</v>
       </c>
       <c r="E88" t="n">
-        <v>5.99</v>
+        <v>5.81</v>
       </c>
       <c r="F88" t="n">
-        <v>27829.95016527546</v>
+        <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>5.899999999999992</v>
+        <v>5.909333333333338</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F89" t="n">
-        <v>178.6613</v>
+        <v>27829.95016527546</v>
       </c>
       <c r="G89" t="n">
-        <v>5.994999999999992</v>
+        <v>5.912500000000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>178.6613</v>
       </c>
       <c r="G90" t="n">
-        <v>5.994999999999991</v>
+        <v>5.915666666666671</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F91" t="n">
-        <v>177.4751</v>
+        <v>178.6613</v>
       </c>
       <c r="G91" t="n">
-        <v>5.99499999999999</v>
+        <v>5.918666666666671</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>16993.185</v>
+        <v>177.4751</v>
       </c>
       <c r="G92" t="n">
-        <v>5.924999999999991</v>
+        <v>5.921833333333338</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C93" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="D93" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="E93" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F93" t="n">
-        <v>11015.4264</v>
+        <v>16993.185</v>
       </c>
       <c r="G93" t="n">
-        <v>5.839999999999991</v>
+        <v>5.922333333333339</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C94" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D94" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="E94" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F94" t="n">
-        <v>141874.2334</v>
+        <v>11015.4264</v>
       </c>
       <c r="G94" t="n">
-        <v>5.834999999999991</v>
+        <v>5.920500000000005</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>5.84</v>
       </c>
       <c r="C95" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D95" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E95" t="n">
         <v>5.84</v>
       </c>
-      <c r="E95" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F95" t="n">
-        <v>300502.9826</v>
+        <v>141874.2334</v>
       </c>
       <c r="G95" t="n">
-        <v>5.824999999999991</v>
+        <v>5.920833333333338</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="C96" t="n">
         <v>5.81</v>
       </c>
       <c r="D96" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="E96" t="n">
         <v>5.81</v>
       </c>
       <c r="F96" t="n">
-        <v>139818.6097</v>
+        <v>300502.9826</v>
       </c>
       <c r="G96" t="n">
-        <v>5.809999999999992</v>
+        <v>5.920666666666672</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="C97" t="n">
         <v>5.81</v>
       </c>
       <c r="D97" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="E97" t="n">
         <v>5.81</v>
       </c>
       <c r="F97" t="n">
-        <v>80000</v>
+        <v>139818.6097</v>
       </c>
       <c r="G97" t="n">
-        <v>5.809999999999992</v>
+        <v>5.920000000000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>5.81</v>
       </c>
       <c r="F98" t="n">
-        <v>37208.3745</v>
+        <v>80000</v>
       </c>
       <c r="G98" t="n">
-        <v>5.809999999999992</v>
+        <v>5.919333333333338</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>5.81</v>
       </c>
       <c r="C99" t="n">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="D99" t="n">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="E99" t="n">
         <v>5.81</v>
       </c>
       <c r="F99" t="n">
-        <v>19043.248</v>
+        <v>37208.3745</v>
       </c>
       <c r="G99" t="n">
-        <v>5.819999999999991</v>
+        <v>5.91866666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="C100" t="n">
         <v>5.83</v>
@@ -3872,13 +3872,13 @@
         <v>5.83</v>
       </c>
       <c r="E100" t="n">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="F100" t="n">
-        <v>29351.6457</v>
+        <v>19043.248</v>
       </c>
       <c r="G100" t="n">
-        <v>5.829999999999993</v>
+        <v>5.919000000000003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="C101" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="D101" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="E101" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="F101" t="n">
-        <v>12277.1681</v>
+        <v>29351.6457</v>
       </c>
       <c r="G101" t="n">
-        <v>5.794999999999994</v>
+        <v>5.917333333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3936,19 @@
         <v>5.76</v>
       </c>
       <c r="C102" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="D102" t="n">
         <v>5.76</v>
       </c>
       <c r="E102" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="F102" t="n">
-        <v>13622.0252</v>
+        <v>12277.1681</v>
       </c>
       <c r="G102" t="n">
-        <v>5.754999999999995</v>
+        <v>5.912500000000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="C103" t="n">
         <v>5.75</v>
       </c>
       <c r="D103" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="E103" t="n">
         <v>5.75</v>
       </c>
       <c r="F103" t="n">
-        <v>18032.8178</v>
+        <v>13622.0252</v>
       </c>
       <c r="G103" t="n">
-        <v>5.749999999999996</v>
+        <v>5.908500000000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="C104" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="D104" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="E104" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="F104" t="n">
-        <v>14885.8934</v>
+        <v>18032.8178</v>
       </c>
       <c r="G104" t="n">
-        <v>5.739999999999995</v>
+        <v>5.906500000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C105" t="n">
         <v>5.73</v>
       </c>
-      <c r="C105" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D105" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E105" t="n">
         <v>5.73</v>
       </c>
-      <c r="E105" t="n">
-        <v>5.71</v>
-      </c>
       <c r="F105" t="n">
-        <v>34299.9094</v>
+        <v>14885.8934</v>
       </c>
       <c r="G105" t="n">
-        <v>5.719999999999995</v>
+        <v>5.901500000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="C106" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="D106" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="E106" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="F106" t="n">
-        <v>96404.1326</v>
+        <v>34299.9094</v>
       </c>
       <c r="G106" t="n">
-        <v>5.689999999999996</v>
+        <v>5.898833333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="C107" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="D107" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="E107" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="F107" t="n">
-        <v>17471.4684</v>
+        <v>96404.1326</v>
       </c>
       <c r="G107" t="n">
-        <v>5.644999999999996</v>
+        <v>5.89366666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C108" t="n">
         <v>5.62</v>
       </c>
       <c r="D108" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E108" t="n">
         <v>5.62</v>
       </c>
       <c r="F108" t="n">
-        <v>16034.6244</v>
+        <v>17471.4684</v>
       </c>
       <c r="G108" t="n">
-        <v>5.619999999999997</v>
+        <v>5.887000000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="C109" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
       <c r="D109" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E109" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
       <c r="F109" t="n">
-        <v>44788.2532</v>
+        <v>16034.6244</v>
       </c>
       <c r="G109" t="n">
-        <v>5.599999999999996</v>
+        <v>5.882500000000004</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="C110" t="n">
         <v>5.58</v>
       </c>
       <c r="D110" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="E110" t="n">
         <v>5.58</v>
       </c>
       <c r="F110" t="n">
-        <v>31384.9168</v>
+        <v>44788.2532</v>
       </c>
       <c r="G110" t="n">
-        <v>5.579999999999997</v>
+        <v>5.87716666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="C111" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="D111" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="E111" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="F111" t="n">
-        <v>504.4257</v>
+        <v>31384.9168</v>
       </c>
       <c r="G111" t="n">
-        <v>5.599999999999997</v>
+        <v>5.870500000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C112" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D112" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E112" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F112" t="n">
-        <v>355</v>
+        <v>504.4257</v>
       </c>
       <c r="G112" t="n">
-        <v>5.629999999999996</v>
+        <v>5.865000000000004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="C113" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="D113" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="E113" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="F113" t="n">
-        <v>185.0813</v>
+        <v>355</v>
       </c>
       <c r="G113" t="n">
-        <v>5.714999999999996</v>
+        <v>5.860000000000003</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>5.79</v>
       </c>
       <c r="F114" t="n">
-        <v>16655</v>
+        <v>185.0813</v>
       </c>
       <c r="G114" t="n">
-        <v>5.789999999999996</v>
+        <v>5.856500000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="C115" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="D115" t="n">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="E115" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="F115" t="n">
-        <v>265476.8538</v>
+        <v>16655</v>
       </c>
       <c r="G115" t="n">
-        <v>5.694999999999997</v>
+        <v>5.853833333333338</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C116" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="D116" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E116" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="F116" t="n">
-        <v>62794.3667</v>
+        <v>265476.8538</v>
       </c>
       <c r="G116" t="n">
-        <v>5.604999999999997</v>
+        <v>5.849166666666672</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="C117" t="n">
         <v>5.61</v>
       </c>
       <c r="D117" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="E117" t="n">
         <v>5.61</v>
       </c>
       <c r="F117" t="n">
-        <v>18972.5409</v>
+        <v>62794.3667</v>
       </c>
       <c r="G117" t="n">
-        <v>5.609999999999997</v>
+        <v>5.844833333333338</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>5.61</v>
       </c>
       <c r="F118" t="n">
-        <v>12420.6859</v>
+        <v>18972.5409</v>
       </c>
       <c r="G118" t="n">
-        <v>5.609999999999998</v>
+        <v>5.840666666666672</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.65</v>
+        <v>5.61</v>
       </c>
       <c r="C119" t="n">
         <v>5.61</v>
       </c>
       <c r="D119" t="n">
-        <v>5.65</v>
+        <v>5.61</v>
       </c>
       <c r="E119" t="n">
         <v>5.61</v>
       </c>
       <c r="F119" t="n">
-        <v>157152.8642</v>
+        <v>12420.6859</v>
       </c>
       <c r="G119" t="n">
-        <v>5.609999999999998</v>
+        <v>5.836500000000004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,13 +4563,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.61</v>
+        <v>5.65</v>
       </c>
       <c r="C120" t="n">
         <v>5.61</v>
       </c>
       <c r="D120" t="n">
-        <v>5.61</v>
+        <v>5.65</v>
       </c>
       <c r="E120" t="n">
         <v>5.61</v>
@@ -4578,7 +4578,7 @@
         <v>157152.8642</v>
       </c>
       <c r="G120" t="n">
-        <v>5.609999999999998</v>
+        <v>5.831833333333338</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,23 +4610,19 @@
         <v>5.61</v>
       </c>
       <c r="F121" t="n">
-        <v>4517.4215</v>
+        <v>157152.8642</v>
       </c>
       <c r="G121" t="n">
-        <v>5.609999999999998</v>
+        <v>5.826666666666672</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.61</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -4637,40 +4633,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="C122" t="n">
-        <v>5.57</v>
+        <v>5.61</v>
       </c>
       <c r="D122" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="E122" t="n">
-        <v>5.57</v>
+        <v>5.61</v>
       </c>
       <c r="F122" t="n">
-        <v>139549.6728</v>
+        <v>4517.4215</v>
       </c>
       <c r="G122" t="n">
-        <v>5.589999999999998</v>
+        <v>5.821500000000005</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,40 +4668,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.67</v>
+        <v>5.58</v>
       </c>
       <c r="C123" t="n">
-        <v>5.67</v>
+        <v>5.57</v>
       </c>
       <c r="D123" t="n">
-        <v>5.67</v>
+        <v>5.58</v>
       </c>
       <c r="E123" t="n">
-        <v>5.67</v>
+        <v>5.57</v>
       </c>
       <c r="F123" t="n">
-        <v>193.1925</v>
+        <v>139549.6728</v>
       </c>
       <c r="G123" t="n">
-        <v>5.619999999999997</v>
+        <v>5.816166666666672</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K123" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4723,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="C124" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="D124" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="E124" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="F124" t="n">
-        <v>30456.8933</v>
+        <v>193.1925</v>
       </c>
       <c r="G124" t="n">
-        <v>5.634999999999998</v>
+        <v>5.810833333333338</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4747,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
       <c r="C125" t="n">
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
       <c r="D125" t="n">
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
       <c r="E125" t="n">
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
       <c r="F125" t="n">
-        <v>400</v>
+        <v>30456.8933</v>
       </c>
       <c r="G125" t="n">
-        <v>5.644999999999999</v>
+        <v>5.804166666666672</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4788,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4805,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="C126" t="n">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="D126" t="n">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="E126" t="n">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="F126" t="n">
-        <v>2562.5035</v>
+        <v>400</v>
       </c>
       <c r="G126" t="n">
-        <v>5.724999999999999</v>
+        <v>5.799000000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4829,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4846,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="C127" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="D127" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="E127" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F127" t="n">
-        <v>166313.7304</v>
+        <v>2562.5035</v>
       </c>
       <c r="G127" t="n">
-        <v>5.774999999999999</v>
+        <v>5.795000000000005</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4870,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4887,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.86</v>
+        <v>5.77</v>
       </c>
       <c r="C128" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="D128" t="n">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="E128" t="n">
-        <v>5.86</v>
+        <v>5.77</v>
       </c>
       <c r="F128" t="n">
-        <v>2401.5817</v>
+        <v>166313.7304</v>
       </c>
       <c r="G128" t="n">
-        <v>5.824999999999998</v>
+        <v>5.792000000000005</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4911,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4928,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="C129" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="D129" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="E129" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="F129" t="n">
-        <v>2492.9143</v>
+        <v>2401.5817</v>
       </c>
       <c r="G129" t="n">
-        <v>5.84</v>
+        <v>5.792833333333339</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4952,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4969,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="C130" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="D130" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="E130" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="F130" t="n">
-        <v>8099.3746</v>
+        <v>2492.9143</v>
       </c>
       <c r="G130" t="n">
-        <v>5.84</v>
+        <v>5.790500000000006</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4993,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C131" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D131" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E131" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F131" t="n">
-        <v>36449.0594</v>
+        <v>8099.3746</v>
       </c>
       <c r="G131" t="n">
-        <v>5.895</v>
+        <v>5.791333333333339</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5034,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5063,10 +4995,10 @@
         <v>5.93</v>
       </c>
       <c r="F132" t="n">
-        <v>52780.9406</v>
+        <v>36449.0594</v>
       </c>
       <c r="G132" t="n">
-        <v>5.93</v>
+        <v>5.791000000000007</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5075,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5092,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C133" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D133" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E133" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F133" t="n">
-        <v>68841.69289999999</v>
+        <v>52780.9406</v>
       </c>
       <c r="G133" t="n">
-        <v>5.935</v>
+        <v>5.790666666666673</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5116,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5133,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="C134" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="D134" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="E134" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="F134" t="n">
-        <v>240396.776</v>
+        <v>68841.69289999999</v>
       </c>
       <c r="G134" t="n">
-        <v>5.965</v>
+        <v>5.792833333333339</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5157,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5174,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C135" t="n">
         <v>5.99</v>
       </c>
-      <c r="C135" t="n">
-        <v>6</v>
-      </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E135" t="n">
-        <v>5.99</v>
+        <v>5.96</v>
       </c>
       <c r="F135" t="n">
-        <v>93089.6464</v>
+        <v>240396.776</v>
       </c>
       <c r="G135" t="n">
-        <v>5.994999999999999</v>
+        <v>5.793666666666673</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5198,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5215,7 +5123,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C136" t="n">
         <v>6</v>
@@ -5224,31 +5132,25 @@
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F136" t="n">
-        <v>271648.7797</v>
+        <v>93089.6464</v>
       </c>
       <c r="G136" t="n">
-        <v>5.999999999999999</v>
+        <v>5.79633333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>1.06451871657754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5259,25 +5161,25 @@
         <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
         <v>6</v>
       </c>
       <c r="E137" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>9734046.3073</v>
+        <v>271648.7797</v>
       </c>
       <c r="G137" t="n">
-        <v>5.979999999999999</v>
+        <v>5.799500000000007</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5291,28 +5193,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="C138" t="n">
         <v>5.96</v>
       </c>
       <c r="D138" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
         <v>5.96</v>
       </c>
       <c r="F138" t="n">
-        <v>28371647.4522</v>
+        <v>9734046.3073</v>
       </c>
       <c r="G138" t="n">
-        <v>5.959999999999999</v>
+        <v>5.79983333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5326,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="C139" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="D139" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="E139" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="F139" t="n">
-        <v>27300000</v>
+        <v>28371647.4522</v>
       </c>
       <c r="G139" t="n">
-        <v>5.949999999999999</v>
+        <v>5.800000000000007</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5361,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C140" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="D140" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E140" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F140" t="n">
-        <v>26520148.3071</v>
+        <v>27300000</v>
       </c>
       <c r="G140" t="n">
-        <v>5.944999999999999</v>
+        <v>5.799333333333339</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5396,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="C141" t="n">
-        <v>5.8</v>
+        <v>5.95</v>
       </c>
       <c r="D141" t="n">
-        <v>5.81</v>
+        <v>5.95</v>
       </c>
       <c r="E141" t="n">
-        <v>5.8</v>
+        <v>5.93</v>
       </c>
       <c r="F141" t="n">
-        <v>105813.3191</v>
+        <v>26520148.3071</v>
       </c>
       <c r="G141" t="n">
-        <v>5.874999999999998</v>
+        <v>5.799000000000006</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5431,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="C142" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="D142" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="E142" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="F142" t="n">
-        <v>24561</v>
+        <v>105813.3191</v>
       </c>
       <c r="G142" t="n">
-        <v>5.789999999999999</v>
+        <v>5.796333333333339</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5466,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.71</v>
+        <v>5.78</v>
       </c>
       <c r="C143" t="n">
-        <v>5.7</v>
+        <v>5.78</v>
       </c>
       <c r="D143" t="n">
-        <v>5.71</v>
+        <v>5.78</v>
       </c>
       <c r="E143" t="n">
-        <v>5.7</v>
+        <v>5.78</v>
       </c>
       <c r="F143" t="n">
-        <v>198662.1222</v>
+        <v>24561</v>
       </c>
       <c r="G143" t="n">
-        <v>5.739999999999998</v>
+        <v>5.796166666666672</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5501,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="C144" t="n">
-        <v>5.76</v>
+        <v>5.7</v>
       </c>
       <c r="D144" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="E144" t="n">
-        <v>5.76</v>
+        <v>5.7</v>
       </c>
       <c r="F144" t="n">
-        <v>9600000</v>
+        <v>198662.1222</v>
       </c>
       <c r="G144" t="n">
-        <v>5.729999999999997</v>
+        <v>5.791666666666671</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5548,10 +5450,10 @@
         <v>5.76</v>
       </c>
       <c r="F145" t="n">
-        <v>37300000</v>
+        <v>9600000</v>
       </c>
       <c r="G145" t="n">
-        <v>5.759999999999996</v>
+        <v>5.788500000000004</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5583,10 +5485,10 @@
         <v>5.76</v>
       </c>
       <c r="F146" t="n">
-        <v>44000000</v>
+        <v>37300000</v>
       </c>
       <c r="G146" t="n">
-        <v>5.759999999999997</v>
+        <v>5.784833333333338</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5618,10 +5520,10 @@
         <v>5.76</v>
       </c>
       <c r="F147" t="n">
-        <v>49500000</v>
+        <v>44000000</v>
       </c>
       <c r="G147" t="n">
-        <v>5.759999999999997</v>
+        <v>5.781000000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5644,19 +5546,19 @@
         <v>5.76</v>
       </c>
       <c r="C148" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="D148" t="n">
         <v>5.76</v>
       </c>
       <c r="E148" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="F148" t="n">
-        <v>57442.0179</v>
+        <v>49500000</v>
       </c>
       <c r="G148" t="n">
-        <v>5.739999999999998</v>
+        <v>5.780166666666671</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5676,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="C149" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="D149" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="E149" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="F149" t="n">
-        <v>5000</v>
+        <v>57442.0179</v>
       </c>
       <c r="G149" t="n">
-        <v>5.734999999999999</v>
+        <v>5.775666666666671</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5723,10 +5625,10 @@
         <v>5.75</v>
       </c>
       <c r="F150" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G150" t="n">
-        <v>5.75</v>
+        <v>5.771500000000004</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5758,10 +5660,10 @@
         <v>5.75</v>
       </c>
       <c r="F151" t="n">
-        <v>88.98999999999999</v>
+        <v>400</v>
       </c>
       <c r="G151" t="n">
-        <v>5.75</v>
+        <v>5.767500000000004</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5793,10 +5695,10 @@
         <v>5.75</v>
       </c>
       <c r="F152" t="n">
-        <v>20011.01</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>5.75</v>
+        <v>5.763333333333337</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5828,10 +5730,10 @@
         <v>5.75</v>
       </c>
       <c r="F153" t="n">
-        <v>5000</v>
+        <v>20011.01</v>
       </c>
       <c r="G153" t="n">
-        <v>5.75</v>
+        <v>5.76166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5866,7 +5768,7 @@
         <v>5000</v>
       </c>
       <c r="G154" t="n">
-        <v>5.75</v>
+        <v>5.760333333333337</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5901,7 +5803,7 @@
         <v>5000</v>
       </c>
       <c r="G155" t="n">
-        <v>5.75</v>
+        <v>5.758833333333338</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5921,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C156" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="D156" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E156" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="F156" t="n">
-        <v>112966.1753</v>
+        <v>5000</v>
       </c>
       <c r="G156" t="n">
-        <v>5.74</v>
+        <v>5.757833333333338</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5956,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="C157" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D157" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E157" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F157" t="n">
-        <v>311512.9516</v>
+        <v>112966.1753</v>
       </c>
       <c r="G157" t="n">
-        <v>5.725</v>
+        <v>5.756500000000004</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5991,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C158" t="n">
         <v>5.72</v>
       </c>
       <c r="D158" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="E158" t="n">
         <v>5.72</v>
       </c>
       <c r="F158" t="n">
-        <v>20000</v>
+        <v>311512.9516</v>
       </c>
       <c r="G158" t="n">
-        <v>5.719999999999999</v>
+        <v>5.755000000000005</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6026,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="C159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="E159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="F159" t="n">
-        <v>8211.616900000001</v>
+        <v>20000</v>
       </c>
       <c r="G159" t="n">
-        <v>5.709999999999999</v>
+        <v>5.753500000000005</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6064,19 +5966,19 @@
         <v>5.7</v>
       </c>
       <c r="C160" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="D160" t="n">
         <v>5.7</v>
       </c>
       <c r="E160" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="F160" t="n">
-        <v>491543.1312</v>
+        <v>8211.616900000001</v>
       </c>
       <c r="G160" t="n">
-        <v>5.675000000000001</v>
+        <v>5.751333333333339</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6096,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="C161" t="n">
         <v>5.65</v>
       </c>
       <c r="D161" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="E161" t="n">
         <v>5.65</v>
       </c>
       <c r="F161" t="n">
-        <v>40268.5437</v>
+        <v>491543.1312</v>
       </c>
       <c r="G161" t="n">
-        <v>5.65</v>
+        <v>5.748333333333338</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6131,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C162" t="n">
-        <v>5.6</v>
+        <v>5.65</v>
       </c>
       <c r="D162" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E162" t="n">
-        <v>5.6</v>
+        <v>5.65</v>
       </c>
       <c r="F162" t="n">
-        <v>64867.234</v>
+        <v>40268.5437</v>
       </c>
       <c r="G162" t="n">
-        <v>5.624999999999999</v>
+        <v>5.746500000000005</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6166,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C163" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="D163" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E163" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="F163" t="n">
-        <v>63554.3239</v>
+        <v>64867.234</v>
       </c>
       <c r="G163" t="n">
-        <v>5.585</v>
+        <v>5.744000000000005</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6201,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="C164" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="D164" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E164" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="F164" t="n">
-        <v>2678.667</v>
+        <v>63554.3239</v>
       </c>
       <c r="G164" t="n">
-        <v>5.605</v>
+        <v>5.741000000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6236,31 +6138,35 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C165" t="n">
         <v>5.64</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5.63</v>
       </c>
       <c r="D165" t="n">
         <v>5.64</v>
       </c>
       <c r="E165" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F165" t="n">
-        <v>14982.568</v>
+        <v>2678.667</v>
       </c>
       <c r="G165" t="n">
-        <v>5.635</v>
+        <v>5.739500000000005</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="K165" t="n">
+        <v>5.57</v>
+      </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
@@ -6271,32 +6177,40 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C166" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="D166" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="E166" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="F166" t="n">
-        <v>17491.993</v>
+        <v>14982.568</v>
       </c>
       <c r="G166" t="n">
-        <v>5.649999999999999</v>
+        <v>5.738166666666672</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K166" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6306,32 +6220,40 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="C167" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="D167" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="E167" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="F167" t="n">
-        <v>233495.7234</v>
+        <v>17491.993</v>
       </c>
       <c r="G167" t="n">
-        <v>5.664999999999999</v>
+        <v>5.738166666666672</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K167" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6341,22 +6263,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="C168" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="D168" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="E168" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="F168" t="n">
-        <v>438.3952</v>
+        <v>233495.7234</v>
       </c>
       <c r="G168" t="n">
-        <v>5.685</v>
+        <v>5.738833333333338</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6376,22 +6298,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C169" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="D169" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="E169" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="F169" t="n">
-        <v>107850.2358</v>
+        <v>438.3952</v>
       </c>
       <c r="G169" t="n">
-        <v>5.705</v>
+        <v>5.740333333333338</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6411,22 +6333,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C170" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="D170" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E170" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F170" t="n">
-        <v>218264.7333</v>
+        <v>107850.2358</v>
       </c>
       <c r="G170" t="n">
-        <v>5.664999999999999</v>
+        <v>5.742333333333338</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6446,22 +6368,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C171" t="n">
         <v>5.63</v>
       </c>
-      <c r="C171" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D171" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E171" t="n">
         <v>5.63</v>
       </c>
-      <c r="E171" t="n">
-        <v>5.56</v>
-      </c>
       <c r="F171" t="n">
-        <v>983834.211</v>
+        <v>218264.7333</v>
       </c>
       <c r="G171" t="n">
-        <v>5.594999999999999</v>
+        <v>5.743166666666672</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6481,22 +6403,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="C172" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="D172" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="E172" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="F172" t="n">
-        <v>359</v>
+        <v>983834.211</v>
       </c>
       <c r="G172" t="n">
-        <v>5.569999999999999</v>
+        <v>5.742166666666672</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6519,19 +6441,19 @@
         <v>5.58</v>
       </c>
       <c r="C173" t="n">
-        <v>5.56</v>
+        <v>5.58</v>
       </c>
       <c r="D173" t="n">
         <v>5.58</v>
       </c>
       <c r="E173" t="n">
-        <v>5.56</v>
+        <v>5.58</v>
       </c>
       <c r="F173" t="n">
-        <v>406710.5064</v>
+        <v>359</v>
       </c>
       <c r="G173" t="n">
-        <v>5.569999999999999</v>
+        <v>5.741166666666672</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6551,22 +6473,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="C174" t="n">
-        <v>5.68</v>
+        <v>5.56</v>
       </c>
       <c r="D174" t="n">
-        <v>5.68</v>
+        <v>5.58</v>
       </c>
       <c r="E174" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F174" t="n">
-        <v>839411.8964</v>
+        <v>406710.5064</v>
       </c>
       <c r="G174" t="n">
-        <v>5.619999999999998</v>
+        <v>5.737333333333338</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6586,276 +6508,268 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F175" t="n">
+        <v>839411.8964</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.735500000000004</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K175" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>5.7</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C176" t="n">
         <v>5.7</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D176" t="n">
         <v>5.7</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E176" t="n">
         <v>5.64</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F176" t="n">
         <v>38168.6882</v>
       </c>
-      <c r="G175" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
+      <c r="G176" t="n">
+        <v>5.737166666666671</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>5.68</v>
       </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="K176" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1258.5925</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.738666666666671</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K177" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F178" t="n">
+        <v>22363.5548</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.739333333333336</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F179" t="n">
+        <v>373738.4903</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.73816666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F180" t="n">
+        <v>101772.4629</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.73866666666667</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F181" t="n">
+        <v>192</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.738166666666669</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1258.5925</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5.699999999999999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F177" t="n">
-        <v>22363.5548</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5.674999999999999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="F178" t="n">
-        <v>373738.4903</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5.594999999999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F179" t="n">
-        <v>101772.4629</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5.589999999999999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F180" t="n">
-        <v>192</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5.609999999999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F181" t="n">
-        <v>191840.5038</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5.684999999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6865,30 +6779,32 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.76</v>
+        <v>5.68</v>
       </c>
       <c r="C182" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="D182" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="E182" t="n">
-        <v>5.76</v>
+        <v>5.67</v>
       </c>
       <c r="F182" t="n">
-        <v>84424.0298</v>
+        <v>191840.5038</v>
       </c>
       <c r="G182" t="n">
-        <v>5.774999999999998</v>
+        <v>5.741166666666669</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6916,18 +6832,20 @@
         <v>5.76</v>
       </c>
       <c r="F183" t="n">
-        <v>96</v>
+        <v>84424.0298</v>
       </c>
       <c r="G183" t="n">
-        <v>5.759999999999998</v>
+        <v>5.744333333333335</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -6943,22 +6861,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="C184" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="D184" t="n">
-        <v>5.81</v>
+        <v>5.76</v>
       </c>
       <c r="E184" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="F184" t="n">
-        <v>189896.0705</v>
+        <v>96</v>
       </c>
       <c r="G184" t="n">
-        <v>5.754999999999998</v>
+        <v>5.745833333333335</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6982,22 +6900,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.69</v>
+        <v>5.75</v>
       </c>
       <c r="C185" t="n">
-        <v>5.69</v>
+        <v>5.75</v>
       </c>
       <c r="D185" t="n">
-        <v>5.69</v>
+        <v>5.81</v>
       </c>
       <c r="E185" t="n">
-        <v>5.69</v>
+        <v>5.75</v>
       </c>
       <c r="F185" t="n">
-        <v>294963.716</v>
+        <v>189896.0705</v>
       </c>
       <c r="G185" t="n">
-        <v>5.719999999999998</v>
+        <v>5.748333333333335</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7021,22 +6939,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.66</v>
+        <v>5.69</v>
       </c>
       <c r="C186" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="D186" t="n">
-        <v>5.66</v>
+        <v>5.69</v>
       </c>
       <c r="E186" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="F186" t="n">
-        <v>110000</v>
+        <v>294963.716</v>
       </c>
       <c r="G186" t="n">
-        <v>5.634999999999998</v>
+        <v>5.748333333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7060,22 +6978,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="C187" t="n">
-        <v>5.73</v>
+        <v>5.58</v>
       </c>
       <c r="D187" t="n">
-        <v>5.73</v>
+        <v>5.66</v>
       </c>
       <c r="E187" t="n">
-        <v>5.72</v>
+        <v>5.58</v>
       </c>
       <c r="F187" t="n">
-        <v>33369.449</v>
+        <v>110000</v>
       </c>
       <c r="G187" t="n">
-        <v>5.654999999999998</v>
+        <v>5.745333333333335</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7102,19 +7020,19 @@
         <v>5.72</v>
       </c>
       <c r="C188" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D188" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E188" t="n">
         <v>5.72</v>
       </c>
       <c r="F188" t="n">
-        <v>933.5189</v>
+        <v>33369.449</v>
       </c>
       <c r="G188" t="n">
-        <v>5.724999999999997</v>
+        <v>5.744333333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7138,22 +7056,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="C189" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="D189" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="E189" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="F189" t="n">
-        <v>265486.7256</v>
+        <v>933.5189</v>
       </c>
       <c r="G189" t="n">
-        <v>5.684999999999997</v>
+        <v>5.742000000000002</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7177,22 +7095,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="C190" t="n">
-        <v>5.72</v>
+        <v>5.65</v>
       </c>
       <c r="D190" t="n">
-        <v>5.72</v>
+        <v>5.65</v>
       </c>
       <c r="E190" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="F190" t="n">
-        <v>9287.1834</v>
+        <v>265486.7256</v>
       </c>
       <c r="G190" t="n">
-        <v>5.684999999999997</v>
+        <v>5.739166666666668</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7216,7 +7134,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="C191" t="n">
         <v>5.72</v>
@@ -7225,13 +7143,13 @@
         <v>5.72</v>
       </c>
       <c r="E191" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="F191" t="n">
-        <v>10000</v>
+        <v>9287.1834</v>
       </c>
       <c r="G191" t="n">
-        <v>5.719999999999996</v>
+        <v>5.736833333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7270,7 +7188,7 @@
         <v>10000</v>
       </c>
       <c r="G192" t="n">
-        <v>5.719999999999997</v>
+        <v>5.733333333333335</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7309,7 +7227,7 @@
         <v>10000</v>
       </c>
       <c r="G193" t="n">
-        <v>5.719999999999997</v>
+        <v>5.729833333333335</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7345,10 +7263,10 @@
         <v>5.72</v>
       </c>
       <c r="F194" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G194" t="n">
-        <v>5.719999999999997</v>
+        <v>5.72616666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7375,19 +7293,19 @@
         <v>5.72</v>
       </c>
       <c r="C195" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="D195" t="n">
         <v>5.72</v>
       </c>
       <c r="E195" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="F195" t="n">
-        <v>180</v>
+        <v>30000</v>
       </c>
       <c r="G195" t="n">
-        <v>5.689999999999998</v>
+        <v>5.721666666666669</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7411,22 +7329,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="C196" t="n">
         <v>5.66</v>
       </c>
       <c r="D196" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="E196" t="n">
         <v>5.66</v>
       </c>
       <c r="F196" t="n">
-        <v>15023.9175</v>
+        <v>180</v>
       </c>
       <c r="G196" t="n">
-        <v>5.659999999999998</v>
+        <v>5.716000000000004</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7450,22 +7368,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="C197" t="n">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="D197" t="n">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="E197" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="F197" t="n">
-        <v>551496.3621</v>
+        <v>15023.9175</v>
       </c>
       <c r="G197" t="n">
-        <v>5.689999999999998</v>
+        <v>5.710333333333337</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7489,22 +7407,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="C198" t="n">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="D198" t="n">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="E198" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="F198" t="n">
-        <v>216478.7025</v>
+        <v>551496.3621</v>
       </c>
       <c r="G198" t="n">
-        <v>5.739999999999997</v>
+        <v>5.706333333333338</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7528,22 +7446,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="C199" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="D199" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="E199" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="F199" t="n">
-        <v>8803.9848</v>
+        <v>216478.7025</v>
       </c>
       <c r="G199" t="n">
-        <v>5.749999999999996</v>
+        <v>5.703000000000005</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7567,22 +7485,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.78</v>
+        <v>5.74</v>
       </c>
       <c r="C200" t="n">
-        <v>5.78</v>
+        <v>5.74</v>
       </c>
       <c r="D200" t="n">
-        <v>5.78</v>
+        <v>5.74</v>
       </c>
       <c r="E200" t="n">
-        <v>5.78</v>
+        <v>5.74</v>
       </c>
       <c r="F200" t="n">
-        <v>10000</v>
+        <v>8803.9848</v>
       </c>
       <c r="G200" t="n">
-        <v>5.759999999999997</v>
+        <v>5.699666666666672</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7618,10 +7536,10 @@
         <v>5.78</v>
       </c>
       <c r="F201" t="n">
-        <v>5113.9175</v>
+        <v>10000</v>
       </c>
       <c r="G201" t="n">
-        <v>5.779999999999997</v>
+        <v>5.696833333333339</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7648,19 +7566,19 @@
         <v>5.78</v>
       </c>
       <c r="C202" t="n">
-        <v>5.54</v>
+        <v>5.78</v>
       </c>
       <c r="D202" t="n">
         <v>5.78</v>
       </c>
       <c r="E202" t="n">
-        <v>5.54</v>
+        <v>5.78</v>
       </c>
       <c r="F202" t="n">
-        <v>1425768.6559</v>
+        <v>5113.9175</v>
       </c>
       <c r="G202" t="n">
-        <v>5.659999999999997</v>
+        <v>5.696500000000004</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7684,22 +7602,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.69</v>
+        <v>5.78</v>
       </c>
       <c r="C203" t="n">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="D203" t="n">
-        <v>5.69</v>
+        <v>5.78</v>
       </c>
       <c r="E203" t="n">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="F203" t="n">
-        <v>10810</v>
+        <v>1425768.6559</v>
       </c>
       <c r="G203" t="n">
-        <v>5.614999999999997</v>
+        <v>5.692500000000005</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7723,22 +7641,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C204" t="n">
         <v>5.69</v>
       </c>
       <c r="D204" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E204" t="n">
         <v>5.69</v>
       </c>
       <c r="F204" t="n">
-        <v>10800</v>
+        <v>10810</v>
       </c>
       <c r="G204" t="n">
-        <v>5.689999999999998</v>
+        <v>5.692333333333338</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7762,22 +7680,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="C205" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="D205" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="E205" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="F205" t="n">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="G205" t="n">
-        <v>5.714999999999998</v>
+        <v>5.691166666666672</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7801,22 +7719,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="C206" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="D206" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="E206" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="F206" t="n">
-        <v>12559.4655</v>
+        <v>6000</v>
       </c>
       <c r="G206" t="n">
-        <v>5.734999999999998</v>
+        <v>5.690833333333339</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7840,22 +7758,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="C207" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D207" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="E207" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F207" t="n">
-        <v>3901.886</v>
+        <v>12559.4655</v>
       </c>
       <c r="G207" t="n">
-        <v>5.724999999999997</v>
+        <v>5.690333333333339</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7891,10 +7809,10 @@
         <v>5.72</v>
       </c>
       <c r="F208" t="n">
-        <v>10000</v>
+        <v>3901.886</v>
       </c>
       <c r="G208" t="n">
-        <v>5.719999999999997</v>
+        <v>5.689666666666673</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7918,22 +7836,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="C209" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="D209" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="E209" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="F209" t="n">
-        <v>33949.5233</v>
+        <v>10000</v>
       </c>
       <c r="G209" t="n">
-        <v>5.704999999999998</v>
+        <v>5.689666666666673</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7957,22 +7875,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C210" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D210" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E210" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="F210" t="n">
-        <v>39505.7771</v>
+        <v>33949.5233</v>
       </c>
       <c r="G210" t="n">
-        <v>5.684999999999999</v>
+        <v>5.688666666666673</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7996,22 +7914,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="C211" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="D211" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="E211" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="F211" t="n">
-        <v>3000</v>
+        <v>39505.7771</v>
       </c>
       <c r="G211" t="n">
-        <v>5.689999999999998</v>
+        <v>5.687500000000006</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8035,22 +7953,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="C212" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="D212" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="E212" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="F212" t="n">
-        <v>52932.1471</v>
+        <v>3000</v>
       </c>
       <c r="G212" t="n">
-        <v>5.679999999999998</v>
+        <v>5.686666666666673</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8074,22 +7992,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C213" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="D213" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E213" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="F213" t="n">
-        <v>398764.7169</v>
+        <v>52932.1471</v>
       </c>
       <c r="G213" t="n">
-        <v>5.614999999999998</v>
+        <v>5.685166666666674</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8113,22 +8031,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C214" t="n">
         <v>5.57</v>
       </c>
-      <c r="C214" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D214" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E214" t="n">
         <v>5.57</v>
       </c>
-      <c r="E214" t="n">
-        <v>5.56</v>
-      </c>
       <c r="F214" t="n">
-        <v>84061.0254</v>
+        <v>398764.7169</v>
       </c>
       <c r="G214" t="n">
-        <v>5.564999999999998</v>
+        <v>5.682166666666673</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8152,22 +8070,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.59</v>
+        <v>5.57</v>
       </c>
       <c r="C215" t="n">
-        <v>5.59</v>
+        <v>5.56</v>
       </c>
       <c r="D215" t="n">
-        <v>5.59</v>
+        <v>5.57</v>
       </c>
       <c r="E215" t="n">
-        <v>5.59</v>
+        <v>5.56</v>
       </c>
       <c r="F215" t="n">
-        <v>9174.663</v>
+        <v>84061.0254</v>
       </c>
       <c r="G215" t="n">
-        <v>5.574999999999998</v>
+        <v>5.679000000000006</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8203,10 +8121,10 @@
         <v>5.59</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0007</v>
+        <v>9174.663</v>
       </c>
       <c r="G216" t="n">
-        <v>5.589999999999998</v>
+        <v>5.67633333333334</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8230,22 +8148,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5.61</v>
+        <v>5.59</v>
       </c>
       <c r="C217" t="n">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="D217" t="n">
-        <v>5.61</v>
+        <v>5.59</v>
       </c>
       <c r="E217" t="n">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="F217" t="n">
-        <v>506426.8174</v>
+        <v>0.0007</v>
       </c>
       <c r="G217" t="n">
-        <v>5.594999999999997</v>
+        <v>5.674000000000006</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8269,22 +8187,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C218" t="n">
         <v>5.6</v>
       </c>
-      <c r="C218" t="n">
-        <v>5.68</v>
-      </c>
       <c r="D218" t="n">
-        <v>5.68</v>
+        <v>5.61</v>
       </c>
       <c r="E218" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="F218" t="n">
-        <v>637063.1877</v>
+        <v>506426.8174</v>
       </c>
       <c r="G218" t="n">
-        <v>5.639999999999997</v>
+        <v>5.672000000000006</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8308,22 +8226,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="C219" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="D219" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="E219" t="n">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="F219" t="n">
-        <v>8757.025</v>
+        <v>637063.1877</v>
       </c>
       <c r="G219" t="n">
-        <v>5.684999999999998</v>
+        <v>5.671333333333338</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8347,22 +8265,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="C220" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="D220" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="E220" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="F220" t="n">
-        <v>68414.2677</v>
+        <v>8757.025</v>
       </c>
       <c r="G220" t="n">
-        <v>5.679999999999998</v>
+        <v>5.671166666666672</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8386,22 +8304,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="C221" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="D221" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="E221" t="n">
         <v>5.6</v>
       </c>
       <c r="F221" t="n">
-        <v>367021.2805</v>
+        <v>68414.2677</v>
       </c>
       <c r="G221" t="n">
-        <v>5.644999999999998</v>
+        <v>5.671500000000006</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8425,22 +8343,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="C222" t="n">
         <v>5.62</v>
       </c>
       <c r="D222" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E222" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F222" t="n">
-        <v>45164.822</v>
+        <v>367021.2805</v>
       </c>
       <c r="G222" t="n">
-        <v>5.619999999999998</v>
+        <v>5.671000000000006</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8464,22 +8382,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="C223" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
       <c r="D223" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="E223" t="n">
-        <v>5.58</v>
+        <v>5.62</v>
       </c>
       <c r="F223" t="n">
-        <v>54381.1261</v>
+        <v>45164.822</v>
       </c>
       <c r="G223" t="n">
-        <v>5.599999999999998</v>
+        <v>5.671333333333339</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8503,22 +8421,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="C224" t="n">
         <v>5.58</v>
       </c>
       <c r="D224" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="E224" t="n">
         <v>5.58</v>
       </c>
       <c r="F224" t="n">
-        <v>14901.5507</v>
+        <v>54381.1261</v>
       </c>
       <c r="G224" t="n">
-        <v>5.579999999999997</v>
+        <v>5.671500000000006</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8542,22 +8460,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="C225" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="D225" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="E225" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F225" t="n">
-        <v>18424.958</v>
+        <v>14901.5507</v>
       </c>
       <c r="G225" t="n">
-        <v>5.604999999999996</v>
+        <v>5.670500000000006</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8581,22 +8499,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C226" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D226" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E226" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F226" t="n">
-        <v>240720.8998</v>
+        <v>18424.958</v>
       </c>
       <c r="G226" t="n">
-        <v>5.624999999999996</v>
+        <v>5.670500000000006</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8632,10 +8550,10 @@
         <v>5.62</v>
       </c>
       <c r="F227" t="n">
-        <v>156868.8282</v>
+        <v>240720.8998</v>
       </c>
       <c r="G227" t="n">
-        <v>5.619999999999996</v>
+        <v>5.669666666666672</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8671,10 +8589,10 @@
         <v>5.62</v>
       </c>
       <c r="F228" t="n">
-        <v>8132.5773</v>
+        <v>156868.8282</v>
       </c>
       <c r="G228" t="n">
-        <v>5.619999999999996</v>
+        <v>5.669000000000006</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8698,22 +8616,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="C229" t="n">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="D229" t="n">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="E229" t="n">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="F229" t="n">
-        <v>24057.4506</v>
+        <v>8132.5773</v>
       </c>
       <c r="G229" t="n">
-        <v>5.604999999999995</v>
+        <v>5.667500000000006</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8737,22 +8655,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="C230" t="n">
-        <v>5.57</v>
+        <v>5.59</v>
       </c>
       <c r="D230" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="E230" t="n">
-        <v>5.57</v>
+        <v>5.59</v>
       </c>
       <c r="F230" t="n">
-        <v>370615.4037</v>
+        <v>24057.4506</v>
       </c>
       <c r="G230" t="n">
-        <v>5.579999999999995</v>
+        <v>5.665666666666672</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8771,6 +8689,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F231" t="n">
+        <v>370615.4037</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5.664666666666673</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>265269.1413</v>
       </c>
       <c r="G2" t="n">
+        <v>5.892666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.6915</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2155301.567230384</v>
       </c>
       <c r="G3" t="n">
+        <v>5.899333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.701833333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>93291.80286280991</v>
       </c>
       <c r="G4" t="n">
+        <v>5.901333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.712</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3748.7227</v>
       </c>
       <c r="G5" t="n">
+        <v>5.905333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.721166666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>96918.2335</v>
       </c>
       <c r="G6" t="n">
+        <v>5.901333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.7295</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>471636.8029</v>
       </c>
       <c r="G7" t="n">
+        <v>5.898666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.738</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>180645.1081</v>
       </c>
       <c r="G8" t="n">
+        <v>5.888666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.747333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>68572.6905</v>
       </c>
       <c r="G9" t="n">
+        <v>5.877333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.756166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>291352.0858</v>
       </c>
       <c r="G10" t="n">
+        <v>5.866000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.763666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>78096.63310000001</v>
       </c>
       <c r="G11" t="n">
+        <v>5.863333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.7725</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>344</v>
       </c>
       <c r="G12" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.781666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>123334.3569</v>
       </c>
       <c r="G13" t="n">
+        <v>5.865333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.792000000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>933872.008</v>
       </c>
       <c r="G14" t="n">
+        <v>5.885333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.805666666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1004546.6113</v>
       </c>
       <c r="G15" t="n">
+        <v>5.891333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.816500000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>370709.4071</v>
       </c>
       <c r="G16" t="n">
+        <v>5.900666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.828500000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>867302.0906</v>
       </c>
       <c r="G17" t="n">
+        <v>5.908666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.838666666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1254416.9702</v>
       </c>
       <c r="G18" t="n">
+        <v>5.916</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.849166666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>505437.3132</v>
       </c>
       <c r="G19" t="n">
+        <v>5.930000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.860000000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>651058.8092500075</v>
       </c>
       <c r="G20" t="n">
+        <v>5.942000000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.866500000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>50174</v>
       </c>
       <c r="G21" t="n">
+        <v>5.947333333333336</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.869833333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>37554.9096</v>
       </c>
       <c r="G22" t="n">
+        <v>5.957333333333336</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.870833333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>53706.9818</v>
       </c>
       <c r="G23" t="n">
+        <v>5.971333333333336</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.872833333333335</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>181956.0674</v>
       </c>
       <c r="G24" t="n">
+        <v>5.986666666666669</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.876500000000003</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>93849.5064</v>
       </c>
       <c r="G25" t="n">
+        <v>6.000000000000003</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.87866666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>112433.7364</v>
       </c>
       <c r="G26" t="n">
+        <v>6.010666666666669</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.882166666666671</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>135877.8728</v>
       </c>
       <c r="G27" t="n">
+        <v>6.017333333333337</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.885000000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>14496.9562</v>
       </c>
       <c r="G28" t="n">
+        <v>6.015333333333336</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.886833333333338</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>656544.623</v>
       </c>
       <c r="G29" t="n">
+        <v>5.995333333333337</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.888333333333338</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>171965.0224</v>
       </c>
       <c r="G30" t="n">
+        <v>5.987333333333337</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.892166666666672</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>7646.4684</v>
       </c>
       <c r="G31" t="n">
+        <v>5.972666666666671</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.896666666666672</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5812.9598</v>
       </c>
       <c r="G32" t="n">
+        <v>5.956000000000004</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.900833333333338</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>111724.8647</v>
       </c>
       <c r="G33" t="n">
+        <v>5.934000000000003</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.900833333333338</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>96</v>
       </c>
       <c r="G34" t="n">
+        <v>5.918000000000003</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.906833333333338</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>96</v>
       </c>
       <c r="G35" t="n">
+        <v>5.900000000000002</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.910166666666671</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>4102.0852</v>
       </c>
       <c r="G36" t="n">
+        <v>5.892666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.912166666666672</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2545.7873</v>
       </c>
       <c r="G37" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.91133333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>17726.9119</v>
       </c>
       <c r="G38" t="n">
+        <v>5.872666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.912000000000006</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>999.7599</v>
       </c>
       <c r="G39" t="n">
+        <v>5.859999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.913000000000006</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>92242.7939</v>
       </c>
       <c r="G40" t="n">
+        <v>5.849333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.910166666666672</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
+        <v>5.846666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.909500000000006</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>197461.1269</v>
       </c>
       <c r="G42" t="n">
+        <v>5.855333333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.910833333333339</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>72911.6691</v>
       </c>
       <c r="G43" t="n">
+        <v>5.863999999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.911500000000006</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>3344.7457</v>
       </c>
       <c r="G44" t="n">
+        <v>5.868666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.911166666666673</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>16317.904</v>
       </c>
       <c r="G45" t="n">
+        <v>5.883333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.912666666666672</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>143887.973</v>
       </c>
       <c r="G46" t="n">
+        <v>5.887333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.911500000000006</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>12690.3226</v>
       </c>
       <c r="G47" t="n">
+        <v>5.898666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.914000000000006</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>55963.1906</v>
       </c>
       <c r="G48" t="n">
+        <v>5.911999999999998</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.915333333333339</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>107811.0122</v>
       </c>
       <c r="G49" t="n">
+        <v>5.908666666666665</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.914500000000006</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>106656.238</v>
       </c>
       <c r="G50" t="n">
+        <v>5.913999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.915333333333338</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>996</v>
       </c>
       <c r="G51" t="n">
+        <v>5.924666666666665</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.916500000000005</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>96</v>
       </c>
       <c r="G52" t="n">
+        <v>5.931333333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.918333333333338</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>96</v>
       </c>
       <c r="G53" t="n">
+        <v>5.937333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.917500000000005</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>414625.9944</v>
       </c>
       <c r="G54" t="n">
+        <v>5.947333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.917833333333338</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>249252.6193</v>
       </c>
       <c r="G55" t="n">
+        <v>5.956666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.918000000000005</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>15053.8471</v>
       </c>
       <c r="G56" t="n">
+        <v>5.953333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.918500000000004</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4547.7765</v>
       </c>
       <c r="G57" t="n">
+        <v>5.941333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.919000000000005</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>208697.5981</v>
       </c>
       <c r="G58" t="n">
+        <v>5.932666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.919333333333339</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2000</v>
       </c>
       <c r="G59" t="n">
+        <v>5.931999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.920333333333338</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6100</v>
       </c>
       <c r="G60" t="n">
+        <v>5.922666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.921166666666672</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>15148.4633</v>
       </c>
       <c r="G61" t="n">
+        <v>5.925999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.921666666666672</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>190.8605</v>
       </c>
       <c r="G62" t="n">
+        <v>5.921999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.921333333333339</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>190.8605</v>
       </c>
       <c r="G63" t="n">
+        <v>5.913333333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.918833333333339</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2195</v>
       </c>
       <c r="G64" t="n">
+        <v>5.919999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.919166666666672</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>19995.51104</v>
       </c>
       <c r="G65" t="n">
+        <v>5.926666666666665</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.920666666666672</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>200</v>
       </c>
       <c r="G66" t="n">
+        <v>5.927999999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.923166666666671</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>205513.9538</v>
       </c>
       <c r="G67" t="n">
+        <v>5.931333333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.926500000000004</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>162313.6898</v>
       </c>
       <c r="G68" t="n">
+        <v>5.933333333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.928666666666672</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>81028.4611</v>
       </c>
       <c r="G69" t="n">
+        <v>5.920666666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.928666666666672</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>157.7281</v>
       </c>
       <c r="G70" t="n">
+        <v>5.921333333333331</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.931833333333339</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>180</v>
       </c>
       <c r="G71" t="n">
+        <v>5.916666666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.931833333333339</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>12082.4342</v>
       </c>
       <c r="G72" t="n">
+        <v>5.921999999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.934000000000005</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>185.4204</v>
       </c>
       <c r="G73" t="n">
+        <v>5.927999999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.935000000000005</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>185.4204</v>
       </c>
       <c r="G74" t="n">
+        <v>5.924666666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.930166666666671</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>26646.0995</v>
       </c>
       <c r="G75" t="n">
+        <v>5.927999999999998</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.930333333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>73079.7429</v>
       </c>
       <c r="G76" t="n">
+        <v>5.922666666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.927166666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1240.5106</v>
       </c>
       <c r="G77" t="n">
+        <v>5.915333333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.923000000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>42888</v>
       </c>
       <c r="G78" t="n">
+        <v>5.918666666666665</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.919500000000005</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>60009</v>
       </c>
       <c r="G79" t="n">
+        <v>5.915999999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.915666666666671</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>468858.1723</v>
       </c>
       <c r="G80" t="n">
+        <v>5.914666666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.913833333333339</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>27956.44891122278</v>
       </c>
       <c r="G81" t="n">
+        <v>5.912666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.914500000000006</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>61018.515</v>
       </c>
       <c r="G82" t="n">
+        <v>5.909999999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.914666666666673</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>290942.1942</v>
       </c>
       <c r="G83" t="n">
+        <v>5.897999999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.910333333333339</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>88</v>
       </c>
       <c r="G84" t="n">
+        <v>5.908666666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.909166666666673</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>20204.8736</v>
       </c>
       <c r="G85" t="n">
+        <v>5.907999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.908833333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>55147.4646006689</v>
       </c>
       <c r="G86" t="n">
+        <v>5.919333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.909000000000005</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>90221.62703405565</v>
       </c>
       <c r="G87" t="n">
+        <v>5.921999999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.910166666666671</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>200</v>
       </c>
       <c r="G88" t="n">
+        <v>5.912666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.909333333333338</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>27829.95016527546</v>
       </c>
       <c r="G89" t="n">
+        <v>5.924666666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.912500000000005</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>178.6613</v>
       </c>
       <c r="G90" t="n">
+        <v>5.928666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.915666666666671</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>178.6613</v>
       </c>
       <c r="G91" t="n">
+        <v>5.938666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.918666666666671</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>177.4751</v>
       </c>
       <c r="G92" t="n">
+        <v>5.951333333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.921833333333338</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>16993.185</v>
       </c>
       <c r="G93" t="n">
+        <v>5.945333333333331</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.922333333333339</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>11015.4264</v>
       </c>
       <c r="G94" t="n">
+        <v>5.93733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.920500000000005</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>141874.2334</v>
       </c>
       <c r="G95" t="n">
+        <v>5.927999999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.920833333333338</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>300502.9826</v>
       </c>
       <c r="G96" t="n">
+        <v>5.917333333333331</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.920666666666672</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>139818.6097</v>
       </c>
       <c r="G97" t="n">
+        <v>5.907333333333331</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.920000000000004</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>80000</v>
       </c>
       <c r="G98" t="n">
+        <v>5.908666666666664</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.919333333333338</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>37208.3745</v>
       </c>
       <c r="G99" t="n">
+        <v>5.897999999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.91866666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>19043.248</v>
       </c>
       <c r="G100" t="n">
+        <v>5.889999999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.919000000000003</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>29351.6457</v>
       </c>
       <c r="G101" t="n">
+        <v>5.879999999999997</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.917333333333336</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>12277.1681</v>
       </c>
       <c r="G102" t="n">
+        <v>5.864666666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.912500000000003</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>13622.0252</v>
       </c>
       <c r="G103" t="n">
+        <v>5.860666666666664</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.908500000000003</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>18032.8178</v>
       </c>
       <c r="G104" t="n">
+        <v>5.844666666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.906500000000003</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>14885.8934</v>
       </c>
       <c r="G105" t="n">
+        <v>5.826666666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.901500000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>34299.9094</v>
       </c>
       <c r="G106" t="n">
+        <v>5.807999999999998</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.898833333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>96404.1326</v>
       </c>
       <c r="G107" t="n">
+        <v>5.785999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.89366666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>17471.4684</v>
       </c>
       <c r="G108" t="n">
+        <v>5.770666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.887000000000003</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>16034.6244</v>
       </c>
       <c r="G109" t="n">
+        <v>5.756666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.882500000000004</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>44788.2532</v>
       </c>
       <c r="G110" t="n">
+        <v>5.739333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.87716666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>31384.9168</v>
       </c>
       <c r="G111" t="n">
+        <v>5.723999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.870500000000003</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>504.4257</v>
       </c>
       <c r="G112" t="n">
+        <v>5.711333333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.865000000000004</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>355</v>
       </c>
       <c r="G113" t="n">
+        <v>5.699999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.860000000000003</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>185.0813</v>
       </c>
       <c r="G114" t="n">
+        <v>5.698666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.856500000000003</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>16655</v>
       </c>
       <c r="G115" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.853833333333338</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>265476.8538</v>
       </c>
       <c r="G116" t="n">
+        <v>5.680666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.849166666666672</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>62794.3667</v>
       </c>
       <c r="G117" t="n">
+        <v>5.670666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.844833333333338</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>18972.5409</v>
       </c>
       <c r="G118" t="n">
+        <v>5.661333333333332</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.840666666666672</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>12420.6859</v>
       </c>
       <c r="G119" t="n">
+        <v>5.651999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.836500000000004</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>157152.8642</v>
       </c>
       <c r="G120" t="n">
+        <v>5.643999999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.831833333333338</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>157152.8642</v>
       </c>
       <c r="G121" t="n">
+        <v>5.637333333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.826666666666672</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>4517.4215</v>
       </c>
       <c r="G122" t="n">
+        <v>5.633333333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.821500000000005</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>139549.6728</v>
       </c>
       <c r="G123" t="n">
+        <v>5.629999999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.816166666666672</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>193.1925</v>
       </c>
       <c r="G124" t="n">
+        <v>5.633333333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.810833333333338</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>30456.8933</v>
       </c>
       <c r="G125" t="n">
+        <v>5.634666666666665</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.804166666666672</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>400</v>
       </c>
       <c r="G126" t="n">
+        <v>5.641999999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.799000000000006</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>2562.5035</v>
       </c>
       <c r="G127" t="n">
+        <v>5.651333333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.795000000000005</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>166313.7304</v>
       </c>
       <c r="G128" t="n">
+        <v>5.661333333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.792000000000005</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>2401.5817</v>
       </c>
       <c r="G129" t="n">
+        <v>5.665999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.792833333333339</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>2492.9143</v>
       </c>
       <c r="G130" t="n">
+        <v>5.667999999999997</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.790500000000006</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>8099.3746</v>
       </c>
       <c r="G131" t="n">
+        <v>5.685333333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.791333333333339</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>36449.0594</v>
       </c>
       <c r="G132" t="n">
+        <v>5.706666666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.791000000000007</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>52780.9406</v>
       </c>
       <c r="G133" t="n">
+        <v>5.727999999999998</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.790666666666673</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>68841.69289999999</v>
       </c>
       <c r="G134" t="n">
+        <v>5.749999999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.792833333333339</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>240396.776</v>
       </c>
       <c r="G135" t="n">
+        <v>5.775333333333331</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.793666666666673</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>93089.6464</v>
       </c>
       <c r="G136" t="n">
+        <v>5.801333333333331</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.79633333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>271648.7797</v>
       </c>
       <c r="G137" t="n">
+        <v>5.827333333333331</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.799500000000007</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>9734046.3073</v>
       </c>
       <c r="G138" t="n">
+        <v>5.85333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.79983333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>28371647.4522</v>
       </c>
       <c r="G139" t="n">
+        <v>5.872666666666663</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.800000000000007</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>27300000</v>
       </c>
       <c r="G140" t="n">
+        <v>5.89533333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.799333333333339</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>26520148.3071</v>
       </c>
       <c r="G141" t="n">
+        <v>5.912666666666664</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.799000000000006</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>105813.3191</v>
       </c>
       <c r="G142" t="n">
+        <v>5.91533333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.796333333333339</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>24561</v>
       </c>
       <c r="G143" t="n">
+        <v>5.914666666666663</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.796166666666672</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>198662.1222</v>
       </c>
       <c r="G144" t="n">
+        <v>5.903999999999996</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.791666666666671</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>9600000</v>
       </c>
       <c r="G145" t="n">
+        <v>5.899999999999996</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.788500000000004</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>37300000</v>
       </c>
       <c r="G146" t="n">
+        <v>5.89333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.784833333333338</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>44000000</v>
       </c>
       <c r="G147" t="n">
+        <v>5.881999999999997</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.781000000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>49500000</v>
       </c>
       <c r="G148" t="n">
+        <v>5.870666666666665</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.780166666666671</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>57442.0179</v>
       </c>
       <c r="G149" t="n">
+        <v>5.855999999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.775666666666671</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>5000</v>
       </c>
       <c r="G150" t="n">
+        <v>5.839999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.771500000000004</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>400</v>
       </c>
       <c r="G151" t="n">
+        <v>5.823333333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.767500000000004</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>88.98999999999999</v>
       </c>
       <c r="G152" t="n">
+        <v>5.806666666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.763333333333337</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>20011.01</v>
       </c>
       <c r="G153" t="n">
+        <v>5.792666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.76166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>5000</v>
       </c>
       <c r="G154" t="n">
+        <v>5.778666666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.760333333333337</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>5000</v>
       </c>
       <c r="G155" t="n">
+        <v>5.766</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.758833333333338</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>5000</v>
       </c>
       <c r="G156" t="n">
+        <v>5.752666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.757833333333338</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>112966.1753</v>
       </c>
       <c r="G157" t="n">
+        <v>5.748</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.756500000000004</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>311512.9516</v>
       </c>
       <c r="G158" t="n">
+        <v>5.744</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.755000000000005</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>20000</v>
       </c>
       <c r="G159" t="n">
+        <v>5.745333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.753500000000005</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>8211.616900000001</v>
       </c>
       <c r="G160" t="n">
+        <v>5.741333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.751333333333339</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>491543.1312</v>
       </c>
       <c r="G161" t="n">
+        <v>5.733999999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.748333333333338</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>40268.5437</v>
       </c>
       <c r="G162" t="n">
+        <v>5.726666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.746500000000005</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>64867.234</v>
       </c>
       <c r="G163" t="n">
+        <v>5.715999999999998</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.744000000000005</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>63554.3239</v>
       </c>
       <c r="G164" t="n">
+        <v>5.705999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.741000000000005</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,22 +6647,21 @@
         <v>2678.667</v>
       </c>
       <c r="G165" t="n">
+        <v>5.698666666666665</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.739500000000005</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6192,26 +6685,21 @@
         <v>14982.568</v>
       </c>
       <c r="G166" t="n">
+        <v>5.690666666666664</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.738166666666672</v>
       </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6235,26 +6723,21 @@
         <v>17491.993</v>
       </c>
       <c r="G167" t="n">
+        <v>5.685333333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.738166666666672</v>
       </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +6761,21 @@
         <v>233495.7234</v>
       </c>
       <c r="G168" t="n">
+        <v>5.679333333333331</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.738833333333338</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,18 +6799,21 @@
         <v>438.3952</v>
       </c>
       <c r="G169" t="n">
+        <v>5.676666666666664</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.740333333333338</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,18 +6837,21 @@
         <v>107850.2358</v>
       </c>
       <c r="G170" t="n">
+        <v>5.673333333333331</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.742333333333338</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +6875,21 @@
         <v>218264.7333</v>
       </c>
       <c r="G171" t="n">
+        <v>5.665333333333331</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.743166666666672</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +6913,21 @@
         <v>983834.211</v>
       </c>
       <c r="G172" t="n">
+        <v>5.653999999999997</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.742166666666672</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +6951,21 @@
         <v>359</v>
       </c>
       <c r="G173" t="n">
+        <v>5.644666666666664</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.741166666666672</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +6989,21 @@
         <v>406710.5064</v>
       </c>
       <c r="G174" t="n">
+        <v>5.633999999999998</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.737333333333338</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,22 +7027,21 @@
         <v>839411.8964</v>
       </c>
       <c r="G175" t="n">
+        <v>5.632666666666664</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.735500000000004</v>
       </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6562,26 +7065,21 @@
         <v>38168.6882</v>
       </c>
       <c r="G176" t="n">
+        <v>5.635999999999997</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.737166666666671</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,26 +7103,21 @@
         <v>1258.5925</v>
       </c>
       <c r="G177" t="n">
+        <v>5.63933333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.738666666666671</v>
       </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,18 +7141,21 @@
         <v>22363.5548</v>
       </c>
       <c r="G178" t="n">
+        <v>5.642666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.739333333333336</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,18 +7179,21 @@
         <v>373738.4903</v>
       </c>
       <c r="G179" t="n">
+        <v>5.640666666666665</v>
+      </c>
+      <c r="H179" t="n">
         <v>5.73816666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,18 +7217,21 @@
         <v>101772.4629</v>
       </c>
       <c r="G180" t="n">
+        <v>5.640666666666665</v>
+      </c>
+      <c r="H180" t="n">
         <v>5.73866666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,1978 +7255,2449 @@
         <v>192</v>
       </c>
       <c r="G181" t="n">
+        <v>5.637333333333332</v>
+      </c>
+      <c r="H181" t="n">
         <v>5.738166666666669</v>
       </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F182" t="n">
+        <v>191840.5038</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.645333333333332</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.741166666666669</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F183" t="n">
+        <v>84424.0298</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.744333333333335</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F184" t="n">
+        <v>96</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.655333333333334</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.745833333333335</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F185" t="n">
+        <v>189896.0705</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5.658666666666667</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5.748333333333335</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F186" t="n">
+        <v>294963.716</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5.662666666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.748333333333335</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F187" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5.664000000000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5.745333333333335</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F188" t="n">
+        <v>33369.449</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5.674000000000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5.744333333333334</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F189" t="n">
+        <v>933.5189</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.684666666666668</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5.742000000000002</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F190" t="n">
+        <v>265486.7256</v>
+      </c>
+      <c r="G190" t="n">
+        <v>5.682666666666667</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5.739166666666668</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9287.1834</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.736833333333335</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>5.685333333333333</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5.733333333333335</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="H193" t="n">
+        <v>5.729833333333335</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F194" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5.701999999999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5.72616666666667</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F195" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5.707333333333333</v>
+      </c>
+      <c r="H195" t="n">
+        <v>5.721666666666669</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F196" t="n">
+        <v>180</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5.712666666666665</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5.716000000000004</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F197" t="n">
+        <v>15023.9175</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5.703999999999998</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5.710333333333337</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F198" t="n">
+        <v>551496.3621</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5.701333333333332</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5.706333333333338</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F199" t="n">
+        <v>216478.7025</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5.701333333333332</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5.703000000000005</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8803.9848</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5.700666666666664</v>
+      </c>
+      <c r="H200" t="n">
+        <v>5.699666666666672</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>5.706666666666664</v>
+      </c>
+      <c r="H201" t="n">
+        <v>5.696833333333339</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5113.9175</v>
+      </c>
+      <c r="G202" t="n">
+        <v>5.719999999999998</v>
+      </c>
+      <c r="H202" t="n">
+        <v>5.696500000000004</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1425768.6559</v>
+      </c>
+      <c r="G203" t="n">
+        <v>5.707333333333332</v>
+      </c>
+      <c r="H203" t="n">
+        <v>5.692500000000005</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10810</v>
+      </c>
+      <c r="G204" t="n">
+        <v>5.705333333333331</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5.692333333333338</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5.707999999999998</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5.691166666666672</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>5.709333333333331</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5.690833333333339</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12559.4655</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5.709999999999997</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5.690333333333339</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3901.886</v>
+      </c>
+      <c r="G208" t="n">
+        <v>5.709999999999997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5.689666666666673</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5.709999999999997</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5.689666666666673</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F210" t="n">
+        <v>33949.5233</v>
+      </c>
+      <c r="G210" t="n">
+        <v>5.707999999999998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5.688666666666673</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F211" t="n">
+        <v>39505.7771</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5.709333333333331</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5.687500000000006</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>5.711999999999998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5.686666666666673</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F213" t="n">
+        <v>52932.1471</v>
+      </c>
+      <c r="G213" t="n">
+        <v>5.707999999999998</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5.685166666666674</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F214" t="n">
+        <v>398764.7169</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5.695333333333331</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.682166666666673</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F215" t="n">
+        <v>84061.0254</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5.683333333333332</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5.679000000000006</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F182" t="n">
-        <v>191840.5038</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5.741166666666669</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F216" t="n">
+        <v>9174.663</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5.670666666666665</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5.67633333333334</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F183" t="n">
-        <v>84424.0298</v>
-      </c>
-      <c r="G183" t="n">
-        <v>5.744333333333335</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5.657999999999999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5.674000000000006</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F184" t="n">
-        <v>96</v>
-      </c>
-      <c r="G184" t="n">
-        <v>5.745833333333335</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>506426.8174</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5.661999999999997</v>
+      </c>
+      <c r="H218" t="n">
+        <v>5.672000000000006</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F185" t="n">
-        <v>189896.0705</v>
-      </c>
-      <c r="G185" t="n">
-        <v>5.748333333333335</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F219" t="n">
+        <v>637063.1877</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5.661333333333331</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5.671333333333338</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C220" t="n">
         <v>5.69</v>
       </c>
-      <c r="C186" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F186" t="n">
-        <v>294963.716</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5.748333333333335</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="D220" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8757.025</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5.661333333333331</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5.671166666666672</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F187" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5.745333333333335</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>68414.2677</v>
+      </c>
+      <c r="G221" t="n">
+        <v>5.656666666666665</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5.671500000000006</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F188" t="n">
-        <v>33369.449</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5.744333333333334</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F222" t="n">
+        <v>367021.2805</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5.649333333333331</v>
+      </c>
+      <c r="H222" t="n">
+        <v>5.671000000000006</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F189" t="n">
-        <v>933.5189</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5.742000000000002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F223" t="n">
+        <v>45164.822</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5.642666666666665</v>
+      </c>
+      <c r="H223" t="n">
+        <v>5.671333333333339</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F190" t="n">
-        <v>265486.7256</v>
-      </c>
-      <c r="G190" t="n">
-        <v>5.739166666666668</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F224" t="n">
+        <v>54381.1261</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5.633333333333331</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5.671500000000006</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F191" t="n">
-        <v>9287.1834</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5.736833333333335</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14901.5507</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5.625999999999999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>5.670500000000006</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.733333333333335</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F226" t="n">
+        <v>18424.958</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5.622666666666665</v>
+      </c>
+      <c r="H226" t="n">
+        <v>5.670500000000006</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C193" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D193" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E193" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>5.729833333333335</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F227" t="n">
+        <v>240720.8998</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5.617333333333332</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5.669666666666672</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D194" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E194" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F194" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>5.72616666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F228" t="n">
+        <v>156868.8282</v>
+      </c>
+      <c r="G228" t="n">
+        <v>5.614666666666666</v>
+      </c>
+      <c r="H228" t="n">
+        <v>5.669000000000006</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D195" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E195" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F195" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>5.721666666666669</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8132.5773</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5.617999999999999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>5.667500000000006</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D196" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E196" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F196" t="n">
-        <v>180</v>
-      </c>
-      <c r="G196" t="n">
-        <v>5.716000000000004</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F230" t="n">
+        <v>24057.4506</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5.619999999999999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5.665666666666672</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D197" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E197" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F197" t="n">
-        <v>15023.9175</v>
-      </c>
-      <c r="G197" t="n">
-        <v>5.710333333333337</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F231" t="n">
+        <v>370615.4037</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5.618666666666665</v>
+      </c>
+      <c r="H231" t="n">
+        <v>5.664666666666673</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D198" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F198" t="n">
-        <v>551496.3621</v>
-      </c>
-      <c r="G198" t="n">
-        <v>5.706333333333338</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1665.1485</v>
+      </c>
+      <c r="G232" t="n">
+        <v>5.617999999999998</v>
+      </c>
+      <c r="H232" t="n">
+        <v>5.665000000000005</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D199" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E199" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F199" t="n">
-        <v>216478.7025</v>
-      </c>
-      <c r="G199" t="n">
-        <v>5.703000000000005</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F233" t="n">
+        <v>37453.3735</v>
+      </c>
+      <c r="G233" t="n">
+        <v>5.621333333333332</v>
+      </c>
+      <c r="H233" t="n">
+        <v>5.666166666666672</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="D200" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="E200" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F200" t="n">
-        <v>8803.9848</v>
-      </c>
-      <c r="G200" t="n">
-        <v>5.699666666666672</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F234" t="n">
+        <v>62552.8604</v>
+      </c>
+      <c r="G234" t="n">
+        <v>5.619999999999999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5.667833333333339</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="D201" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="E201" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="F201" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>5.696833333333339</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F235" t="n">
+        <v>176000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>5.621999999999999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>5.668500000000006</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C202" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="D202" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="E202" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="F202" t="n">
-        <v>5113.9175</v>
-      </c>
-      <c r="G202" t="n">
-        <v>5.696500000000004</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F236" t="n">
+        <v>487870.4562</v>
+      </c>
+      <c r="G236" t="n">
+        <v>5.629999999999999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5.670000000000006</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="D203" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="E203" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1425768.6559</v>
-      </c>
-      <c r="G203" t="n">
-        <v>5.692500000000005</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F237" t="n">
+        <v>20053.1054</v>
+      </c>
+      <c r="G237" t="n">
+        <v>5.641999999999999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>5.671666666666673</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C204" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D204" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E204" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10810</v>
-      </c>
-      <c r="G204" t="n">
-        <v>5.692333333333338</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F238" t="n">
+        <v>200057.451</v>
+      </c>
+      <c r="G238" t="n">
+        <v>5.653999999999998</v>
+      </c>
+      <c r="H238" t="n">
+        <v>5.674166666666674</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D205" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F205" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G205" t="n">
-        <v>5.691166666666672</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>12231.7391</v>
+      </c>
+      <c r="G239" t="n">
+        <v>5.668666666666665</v>
+      </c>
+      <c r="H239" t="n">
+        <v>5.678500000000008</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="D206" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G206" t="n">
-        <v>5.690833333333339</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F240" t="n">
+        <v>48572.0527</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5.691999999999998</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5.683333333333341</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="D207" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="F207" t="n">
-        <v>12559.4655</v>
-      </c>
-      <c r="G207" t="n">
-        <v>5.690333333333339</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F241" t="n">
+        <v>35617.3848</v>
+      </c>
+      <c r="G241" t="n">
+        <v>5.711999999999999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>5.689166666666675</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D208" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F208" t="n">
-        <v>3901.886</v>
-      </c>
-      <c r="G208" t="n">
-        <v>5.689666666666673</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D209" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E209" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>5.689666666666673</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D210" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F210" t="n">
-        <v>33949.5233</v>
-      </c>
-      <c r="G210" t="n">
-        <v>5.688666666666673</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D211" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F211" t="n">
-        <v>39505.7771</v>
-      </c>
-      <c r="G211" t="n">
-        <v>5.687500000000006</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G212" t="n">
-        <v>5.686666666666673</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F213" t="n">
-        <v>52932.1471</v>
-      </c>
-      <c r="G213" t="n">
-        <v>5.685166666666674</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F214" t="n">
-        <v>398764.7169</v>
-      </c>
-      <c r="G214" t="n">
-        <v>5.682166666666673</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="D215" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E215" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="F215" t="n">
-        <v>84061.0254</v>
-      </c>
-      <c r="G215" t="n">
-        <v>5.679000000000006</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D216" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F216" t="n">
-        <v>9174.663</v>
-      </c>
-      <c r="G216" t="n">
-        <v>5.67633333333334</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D217" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="E217" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="G217" t="n">
-        <v>5.674000000000006</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D218" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F218" t="n">
-        <v>506426.8174</v>
-      </c>
-      <c r="G218" t="n">
-        <v>5.672000000000006</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D219" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E219" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F219" t="n">
-        <v>637063.1877</v>
-      </c>
-      <c r="G219" t="n">
-        <v>5.671333333333338</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D220" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="E220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F220" t="n">
-        <v>8757.025</v>
-      </c>
-      <c r="G220" t="n">
-        <v>5.671166666666672</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C221" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D221" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E221" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F221" t="n">
-        <v>68414.2677</v>
-      </c>
-      <c r="G221" t="n">
-        <v>5.671500000000006</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D222" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E222" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F222" t="n">
-        <v>367021.2805</v>
-      </c>
-      <c r="G222" t="n">
-        <v>5.671000000000006</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D223" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F223" t="n">
-        <v>45164.822</v>
-      </c>
-      <c r="G223" t="n">
-        <v>5.671333333333339</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F224" t="n">
-        <v>54381.1261</v>
-      </c>
-      <c r="G224" t="n">
-        <v>5.671500000000006</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D225" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="E225" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14901.5507</v>
-      </c>
-      <c r="G225" t="n">
-        <v>5.670500000000006</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F226" t="n">
-        <v>18424.958</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5.670500000000006</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C227" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D227" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F227" t="n">
-        <v>240720.8998</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5.669666666666672</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C228" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D228" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F228" t="n">
-        <v>156868.8282</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5.669000000000006</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C229" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D229" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E229" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F229" t="n">
-        <v>8132.5773</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5.667500000000006</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="C230" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="E230" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F230" t="n">
-        <v>24057.4506</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.665666666666672</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F231" t="n">
-        <v>370615.4037</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.664666666666673</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N299"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>476190.6204999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,26 +550,15 @@
         <v>366854.6807999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,26 +583,19 @@
         <v>334765.4836999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="J6" t="n">
         <v>5.29</v>
       </c>
-      <c r="K6" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,26 +620,23 @@
         <v>334765.4836999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="J7" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,26 +661,23 @@
         <v>340765.4836999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="J8" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,26 +702,23 @@
         <v>333536.5359999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="J9" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +743,23 @@
         <v>162877.7840999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="J10" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +784,23 @@
         <v>162877.7840999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="J11" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,26 +825,23 @@
         <v>202799.2478999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="J12" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,26 +866,23 @@
         <v>202799.2478999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="J13" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,26 +907,23 @@
         <v>326753.4272999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="J14" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,26 +948,23 @@
         <v>1699184.0354</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="J15" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,26 +989,23 @@
         <v>1699384.0354</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="J16" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,26 +1030,23 @@
         <v>1821297.3884</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="J17" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>5.29</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,22 +1073,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1184,22 +1112,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,22 +1151,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,22 +1190,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,22 +1229,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,22 +1268,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,22 +1307,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1436,22 +1346,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1478,22 +1385,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1520,22 +1424,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1562,22 +1463,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1604,22 +1502,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1646,22 +1541,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1688,22 +1580,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,22 +1619,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1772,22 +1658,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1814,22 +1697,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1856,22 +1736,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1898,22 +1775,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1940,22 +1814,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1982,22 +1853,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2024,22 +1892,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,22 +1931,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,22 +1970,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2150,22 +2009,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2192,22 +2048,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2234,22 +2087,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2276,22 +2126,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2318,22 +2165,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2360,22 +2204,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2402,24 +2243,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1.086417910447761</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.003738317757009</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2446,16 +2282,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2482,16 +2321,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2518,16 +2360,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2552,18 +2397,21 @@
         <v>3743401.302987434</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2590,16 +2438,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2626,16 +2477,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2662,16 +2516,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2698,16 +2555,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2734,16 +2594,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2770,16 +2633,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2806,16 +2672,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2842,16 +2711,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2878,16 +2750,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2914,16 +2789,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2950,16 +2828,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2986,16 +2867,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3022,16 +2906,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3058,16 +2945,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3094,16 +2984,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3128,18 +3021,21 @@
         <v>5172755.436372826</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3164,18 +3060,21 @@
         <v>5250852.069472826</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3200,18 +3099,21 @@
         <v>5251196.069472826</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3238,16 +3140,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3274,16 +3179,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3310,16 +3218,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3346,16 +3257,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,16 +3296,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3418,16 +3335,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3454,16 +3374,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3490,16 +3413,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3526,16 +3452,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3562,16 +3491,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3598,16 +3530,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3634,16 +3569,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3670,16 +3608,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3706,16 +3647,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3742,16 +3686,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3778,16 +3725,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3814,16 +3764,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3850,16 +3803,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3884,18 +3840,21 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3920,18 +3879,21 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3956,18 +3918,21 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3994,16 +3959,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4030,16 +3998,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4066,16 +4037,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4102,16 +4076,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4138,16 +4115,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4174,16 +4154,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,16 +4193,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4246,16 +4232,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4282,16 +4271,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4318,16 +4310,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,18 +4347,21 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4388,18 +4386,21 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4426,16 +4427,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4462,16 +4466,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4498,16 +4505,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4534,16 +4544,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4570,16 +4583,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4606,16 +4622,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4642,16 +4661,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4678,16 +4700,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4714,16 +4739,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4750,16 +4778,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4786,16 +4817,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4822,16 +4856,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4858,16 +4895,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,16 +4934,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4930,16 +4973,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4966,16 +5012,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5002,16 +5051,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5038,16 +5090,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5072,18 +5127,23 @@
         <v>6825782.679322819</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.127325141776938</v>
+      </c>
       <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>1.017045454545455</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5110,16 +5170,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5146,16 +5203,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5182,16 +5236,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5216,18 +5267,15 @@
         <v>6683464.50056282</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5252,18 +5300,15 @@
         <v>6602436.03946282</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5290,16 +5335,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5326,16 +5368,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5362,16 +5401,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5398,16 +5434,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5434,16 +5467,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5470,16 +5500,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5506,16 +5533,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5542,16 +5566,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5578,16 +5599,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5614,16 +5632,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5650,16 +5665,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5686,16 +5698,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5722,16 +5731,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5758,16 +5764,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5794,16 +5797,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5830,16 +5830,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5866,16 +5863,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5902,16 +5896,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5936,18 +5927,15 @@
         <v>6883526.859586323</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5972,18 +5960,15 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6008,18 +5993,15 @@
         <v>6911535.471051598</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6044,18 +6026,15 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6080,18 +6059,15 @@
         <v>6911534.284851599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6118,16 +6094,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6152,18 +6125,15 @@
         <v>6883525.673451599</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6190,16 +6160,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6226,16 +6193,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6262,16 +6226,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6298,16 +6259,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6334,16 +6292,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6370,16 +6325,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6406,16 +6358,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6442,16 +6391,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6478,16 +6424,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6514,16 +6457,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6550,16 +6490,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6586,16 +6523,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6622,16 +6556,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6658,16 +6589,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6694,16 +6622,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6730,16 +6655,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6766,16 +6688,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6802,16 +6721,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6838,16 +6754,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6874,16 +6787,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6910,16 +6820,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6946,16 +6853,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6982,16 +6886,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7018,16 +6919,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7054,16 +6952,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7090,16 +6985,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7126,16 +7018,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7162,16 +7051,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7198,16 +7084,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7234,16 +7117,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7270,16 +7150,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7306,16 +7183,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7342,16 +7216,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7378,16 +7249,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7414,16 +7282,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7450,16 +7315,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7486,16 +7348,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7522,16 +7381,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7558,16 +7414,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7594,16 +7447,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7630,16 +7480,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7664,18 +7511,15 @@
         <v>6754801.418851596</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7700,18 +7544,15 @@
         <v>6754801.418851596</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7736,18 +7577,15 @@
         <v>-2979244.888448403</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7772,18 +7610,15 @@
         <v>-2979244.888448403</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7808,18 +7643,15 @@
         <v>-30279244.8884484</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7844,18 +7676,15 @@
         <v>-3759096.581348401</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7880,18 +7709,15 @@
         <v>-3864909.900448401</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7918,16 +7744,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7954,16 +7777,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7990,16 +7810,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8026,16 +7843,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8062,16 +7876,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8098,16 +7909,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8134,16 +7942,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8170,16 +7975,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8206,16 +8008,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8242,16 +8041,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8278,16 +8074,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8314,16 +8107,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8350,16 +8140,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8386,16 +8173,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8422,16 +8206,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8458,16 +8239,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8494,16 +8272,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8530,16 +8305,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8566,16 +8338,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8602,16 +8371,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8638,16 +8404,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8674,16 +8437,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8710,16 +8470,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8746,16 +8503,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8782,16 +8536,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8818,16 +8569,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8854,16 +8602,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8890,16 +8635,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8926,16 +8668,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8962,16 +8701,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8998,16 +8734,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9034,16 +8767,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9070,16 +8800,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9106,16 +8833,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9142,16 +8866,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9178,16 +8899,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9214,16 +8932,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9250,16 +8965,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9286,16 +8998,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9322,16 +9031,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9358,16 +9064,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9394,16 +9097,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9430,16 +9130,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9466,16 +9163,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9502,16 +9196,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9538,16 +9229,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9574,16 +9262,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9610,16 +9295,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9646,16 +9328,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9682,16 +9361,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9718,16 +9394,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9754,16 +9427,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9790,16 +9460,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9826,16 +9493,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9862,16 +9526,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9898,16 +9559,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9934,16 +9592,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9970,16 +9625,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10006,16 +9658,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10042,16 +9691,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10076,18 +9722,15 @@
         <v>1677674.105551599</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10114,16 +9757,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10150,16 +9790,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10186,16 +9823,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10222,16 +9856,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10258,16 +9889,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10294,16 +9922,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10330,16 +9955,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10366,16 +9988,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10402,16 +10021,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10438,16 +10054,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10474,16 +10087,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10510,16 +10120,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10546,16 +10153,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10582,16 +10186,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10618,16 +10219,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10654,16 +10252,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10690,16 +10285,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10726,16 +10318,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10762,16 +10351,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10798,16 +10384,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10834,16 +10417,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10870,16 +10450,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10906,16 +10483,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10942,16 +10516,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10978,16 +10549,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11014,16 +10582,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11050,16 +10615,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11086,16 +10648,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11122,16 +10681,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11158,16 +10714,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11194,16 +10747,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11230,16 +10780,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11266,16 +10813,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11302,16 +10846,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11338,16 +10879,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11374,16 +10912,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11410,16 +10945,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11446,18 +10978,15 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>334765.4836999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.29</v>
@@ -620,7 +620,7 @@
         <v>334765.4836999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.28</v>
@@ -661,7 +661,7 @@
         <v>340765.4836999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.28</v>
@@ -702,7 +702,7 @@
         <v>333536.5359999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.32</v>
@@ -743,7 +743,7 @@
         <v>162877.7840999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.28</v>
@@ -784,7 +784,7 @@
         <v>162877.7840999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.27</v>
@@ -825,7 +825,7 @@
         <v>202799.2478999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.27</v>
@@ -866,7 +866,7 @@
         <v>202799.2478999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.28</v>
@@ -907,7 +907,7 @@
         <v>326753.4272999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.28</v>
@@ -948,7 +948,7 @@
         <v>1699184.0354</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5.31</v>
@@ -989,7 +989,7 @@
         <v>1699384.0354</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.45</v>
@@ -1030,11 +1030,9 @@
         <v>1821297.3884</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>5.29</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>3743401.302987434</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
@@ -2670,7 +2668,7 @@
         <v>3597059.958005251</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
@@ -2678,13 +2676,15 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>1.108421550094518</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.017045454545455</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2709,17 +2709,11 @@
         <v>3862329.099305251</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2748,17 +2742,11 @@
         <v>6017630.666535635</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2778,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2811,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2865,17 +2841,11 @@
         <v>5823671.907472825</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2907,14 +2877,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2985,14 +2943,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3021,17 +2973,11 @@
         <v>5172755.436372826</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3060,17 +3006,11 @@
         <v>5250852.069472826</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3099,17 +3039,11 @@
         <v>5251196.069472826</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +3075,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3180,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3219,14 +3141,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3258,14 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3297,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3336,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3375,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3414,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3453,14 +3339,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3372,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3405,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3570,14 +3438,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3609,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3648,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3687,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3726,14 +3570,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3762,17 +3600,11 @@
         <v>6609025.660522819</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3633,11 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3666,11 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3699,11 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3732,11 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3765,11 @@
         <v>6892811.547622819</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3798,11 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3831,11 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3864,11 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +3897,11 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3930,11 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +3963,11 @@
         <v>6803018.541022819</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4230,17 +3996,11 @@
         <v>6803518.541022819</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4269,17 +4029,11 @@
         <v>7000979.667922819</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4308,17 +4062,11 @@
         <v>6928067.998822819</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4347,17 +4095,11 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4386,17 +4128,11 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4428,14 +4164,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4467,14 +4197,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4506,14 +4230,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4545,14 +4263,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4296,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4623,14 +4329,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4662,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4701,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4779,14 +4461,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4818,14 +4494,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4857,14 +4527,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4896,14 +4560,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4935,14 +4593,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4974,14 +4626,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5010,17 +4656,11 @@
         <v>6823778.53982282</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5049,17 +4689,11 @@
         <v>6823778.53982282</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5088,17 +4722,11 @@
         <v>6823587.679322819</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5127,23 +4755,15 @@
         <v>6825782.679322819</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>1.127325141776938</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.017045454545455</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5168,7 +4788,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5201,7 +4821,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5234,7 +4854,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5267,7 +4887,7 @@
         <v>6683464.50056282</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5300,7 +4920,7 @@
         <v>6602436.03946282</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5333,7 +4953,7 @@
         <v>6602593.76756282</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5366,7 +4986,7 @@
         <v>6602413.76756282</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5399,7 +5019,7 @@
         <v>6614496.20176282</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5927,7 +5547,7 @@
         <v>6883526.859586323</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5960,7 +5580,7 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5993,7 +5613,7 @@
         <v>6911535.471051598</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6026,7 +5646,7 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6059,7 +5679,7 @@
         <v>6911534.284851599</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6092,7 +5712,7 @@
         <v>6894541.099851599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6125,7 +5745,7 @@
         <v>6883525.673451599</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6290,7 +5910,7 @@
         <v>6724896.924251599</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6323,7 +5943,7 @@
         <v>6743940.172251599</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6389,7 +6009,7 @@
         <v>6731663.004151599</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6422,7 +6042,7 @@
         <v>6718040.978951599</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6455,7 +6075,7 @@
         <v>6718040.978951599</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6488,7 +6108,7 @@
         <v>6703155.085551598</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6521,7 +6141,7 @@
         <v>6668855.176151598</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6554,7 +6174,7 @@
         <v>6572451.043551598</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6587,7 +6207,7 @@
         <v>6554979.575151598</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6620,7 +6240,7 @@
         <v>6554979.575151598</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6653,7 +6273,7 @@
         <v>6510191.321951598</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6686,7 +6306,7 @@
         <v>6510191.321951598</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6719,7 +6339,7 @@
         <v>6510695.747651597</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6752,7 +6372,7 @@
         <v>6511050.747651597</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7511,7 +7131,7 @@
         <v>6754801.418851596</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7544,7 +7164,7 @@
         <v>6754801.418851596</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7577,7 +7197,7 @@
         <v>-2979244.888448403</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7610,7 +7230,7 @@
         <v>-2979244.888448403</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7643,7 +7263,7 @@
         <v>-30279244.8884484</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7676,7 +7296,7 @@
         <v>-3759096.581348401</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7709,7 +7329,7 @@
         <v>-3864909.900448401</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7973,7 +7593,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8006,7 +7626,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8105,7 +7725,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8138,7 +7758,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8237,7 +7857,7 @@
         <v>5034945.832551599</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8270,7 +7890,7 @@
         <v>5034945.832551599</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8303,7 +7923,7 @@
         <v>5026734.215651599</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8798,7 +8418,7 @@
         <v>3302011.500251599</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8831,7 +8451,7 @@
         <v>3340180.188451599</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8864,7 +8484,7 @@
         <v>3340180.188451599</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9722,7 +9342,7 @@
         <v>1677674.105551599</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10987,6 +10607,6 @@
       <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,10 +517,14 @@
         <v>476190.6204999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.36</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -553,8 +557,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -589,9 +599,13 @@
         <v>5.29</v>
       </c>
       <c r="J6" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>5.36</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -626,11 +640,11 @@
         <v>5.28</v>
       </c>
       <c r="J7" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -667,11 +681,11 @@
         <v>5.28</v>
       </c>
       <c r="J8" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -708,11 +722,11 @@
         <v>5.32</v>
       </c>
       <c r="J9" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -749,7 +763,7 @@
         <v>5.28</v>
       </c>
       <c r="J10" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -790,7 +804,7 @@
         <v>5.27</v>
       </c>
       <c r="J11" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -831,7 +845,7 @@
         <v>5.27</v>
       </c>
       <c r="J12" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,7 +886,7 @@
         <v>5.28</v>
       </c>
       <c r="J13" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,7 +927,7 @@
         <v>5.28</v>
       </c>
       <c r="J14" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -954,7 +968,7 @@
         <v>5.31</v>
       </c>
       <c r="J15" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -995,7 +1009,7 @@
         <v>5.45</v>
       </c>
       <c r="J16" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1034,7 +1048,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1073,7 +1087,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,21 +1122,23 @@
         <v>2660914.6432</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>1.064029850746269</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.003738317757009</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1147,17 +1163,11 @@
         <v>2712571.4834</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1196,11 @@
         <v>2952797.7361</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1229,11 @@
         <v>937528.1646999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1262,11 @@
         <v>1008266.9651</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1295,11 @@
         <v>823070.7555999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1328,11 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1361,11 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1394,11 @@
         <v>760723.5874999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1427,11 @@
         <v>759181.0378999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1460,11 @@
         <v>395761.9371999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1496,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1579,14 +1529,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1618,14 +1562,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1657,14 +1595,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1696,14 +1628,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1735,14 +1661,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1774,14 +1694,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1813,14 +1727,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1757,11 @@
         <v>2864960.8209</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1793,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1930,14 +1826,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1969,14 +1859,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2008,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1922,11 @@
         <v>2637212.5978</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1955,11 @@
         <v>2637212.5978</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1988,11 @@
         <v>2452937.759</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +2021,11 @@
         <v>2527742.2844</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +2054,11 @@
         <v>2527742.2844</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2239,17 +2087,11 @@
         <v>2527215.1995</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2123,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,17 +2153,11 @@
         <v>2548331.443</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2356,17 +2186,11 @@
         <v>3779863.005987434</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2395,17 +2219,11 @@
         <v>3743401.302987434</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2255,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2473,17 +2285,11 @@
         <v>3533960.882805251</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2512,17 +2318,11 @@
         <v>3504639.863905251</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2554,14 +2354,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2593,14 +2387,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2420,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,23 +2450,15 @@
         <v>3597059.958005251</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.108421550094518</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.017045454545455</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2742,7 +2516,7 @@
         <v>6017630.666535635</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2808,7 +2582,7 @@
         <v>5920590.140972825</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2874,7 +2648,7 @@
         <v>5352035.104572825</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2907,7 +2681,7 @@
         <v>5532680.212672825</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2940,7 +2714,7 @@
         <v>5464107.522172825</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3600,7 +3374,7 @@
         <v>6609025.660522819</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3633,7 +3407,7 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3666,7 +3440,7 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3699,7 +3473,7 @@
         <v>6780990.68292282</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3732,7 +3506,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3765,7 +3539,7 @@
         <v>6892811.547622819</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3798,7 +3572,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3831,7 +3605,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3864,7 +3638,7 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3897,7 +3671,7 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3930,7 +3704,7 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3963,7 +3737,7 @@
         <v>6803018.541022819</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3996,7 +3770,7 @@
         <v>6803518.541022819</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4029,7 +3803,7 @@
         <v>7000979.667922819</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4062,7 +3836,7 @@
         <v>6928067.998822819</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4095,7 +3869,7 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4128,7 +3902,7 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4656,7 +4430,7 @@
         <v>6823778.53982282</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4689,7 +4463,7 @@
         <v>6823778.53982282</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4722,7 +4496,7 @@
         <v>6823587.679322819</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4755,7 +4529,7 @@
         <v>6825782.679322819</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4788,7 +4562,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4821,7 +4595,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4854,7 +4628,7 @@
         <v>6845778.190362819</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4887,7 +4661,7 @@
         <v>6683464.50056282</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4920,7 +4694,7 @@
         <v>6602436.03946282</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4953,7 +4727,7 @@
         <v>6602593.76756282</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4986,7 +4760,7 @@
         <v>6602413.76756282</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5019,7 +4793,7 @@
         <v>6614496.20176282</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5646,7 +5420,7 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5679,7 +5453,7 @@
         <v>6911534.284851599</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5712,7 +5486,7 @@
         <v>6894541.099851599</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5745,7 +5519,7 @@
         <v>6883525.673451599</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5910,7 +5684,7 @@
         <v>6724896.924251599</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5943,7 +5717,7 @@
         <v>6743940.172251599</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6009,7 +5783,7 @@
         <v>6731663.004151599</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6042,7 +5816,7 @@
         <v>6718040.978951599</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6075,7 +5849,7 @@
         <v>6718040.978951599</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6108,7 +5882,7 @@
         <v>6703155.085551598</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6141,7 +5915,7 @@
         <v>6668855.176151598</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6174,7 +5948,7 @@
         <v>6572451.043551598</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6207,7 +5981,7 @@
         <v>6554979.575151598</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6240,7 +6014,7 @@
         <v>6554979.575151598</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6273,7 +6047,7 @@
         <v>6510191.321951598</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6306,7 +6080,7 @@
         <v>6510191.321951598</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6339,7 +6113,7 @@
         <v>6510695.747651597</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6372,7 +6146,7 @@
         <v>6511050.747651597</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7296,7 +7070,7 @@
         <v>-3759096.581348401</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7593,7 +7367,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7626,7 +7400,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7725,7 +7499,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7758,7 +7532,7 @@
         <v>5459424.959451599</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7857,7 +7631,7 @@
         <v>5034945.832551599</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7890,7 +7664,7 @@
         <v>5034945.832551599</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7923,7 +7697,7 @@
         <v>5026734.215651599</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8418,7 +8192,7 @@
         <v>3302011.500251599</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8451,7 +8225,7 @@
         <v>3340180.188451599</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8484,7 +8258,7 @@
         <v>3340180.188451599</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -10607,6 +10381,6 @@
       <c r="M299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -451,7 +451,7 @@
         <v>498114.1386999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>498114.1386999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.36</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>5.36</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,9 +562,11 @@
         <v>366854.6807999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J5" t="n">
         <v>5.36</v>
       </c>
@@ -1044,9 +1054,11 @@
         <v>1821297.3884</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.52</v>
+      </c>
       <c r="J17" t="n">
         <v>5.36</v>
       </c>
@@ -1083,9 +1095,11 @@
         <v>1988402.9578</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.53</v>
+      </c>
       <c r="J18" t="n">
         <v>5.36</v>
       </c>
@@ -1122,1805 +1136,2135 @@
         <v>2660914.6432</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J19" t="n">
         <v>5.36</v>
       </c>
       <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F20" t="n">
+        <v>51656.8402</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2712571.4834</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F21" t="n">
+        <v>240226.2527</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2952797.7361</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2015269.5714</v>
+      </c>
+      <c r="G22" t="n">
+        <v>937528.1646999998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70738.80039999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1008266.9651</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F24" t="n">
+        <v>185196.2095</v>
+      </c>
+      <c r="G24" t="n">
+        <v>823070.7555999998</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F25" t="n">
+        <v>48961.5989</v>
+      </c>
+      <c r="G25" t="n">
+        <v>774109.1566999998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>774109.1566999998</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13385.5692</v>
+      </c>
+      <c r="G27" t="n">
+        <v>760723.5874999998</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1542.5496</v>
+      </c>
+      <c r="G28" t="n">
+        <v>759181.0378999998</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F29" t="n">
+        <v>363419.1007</v>
+      </c>
+      <c r="G29" t="n">
+        <v>395761.9371999998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F30" t="n">
+        <v>126972.1195</v>
+      </c>
+      <c r="G30" t="n">
+        <v>522734.0566999997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>523734.0566999997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F32" t="n">
+        <v>180</v>
+      </c>
+      <c r="G32" t="n">
+        <v>523554.0566999997</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F33" t="n">
+        <v>42356.8402</v>
+      </c>
+      <c r="G33" t="n">
+        <v>565910.8968999997</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>50000.0597</v>
+      </c>
+      <c r="G34" t="n">
+        <v>615910.9565999997</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>167847.4869</v>
+      </c>
+      <c r="G35" t="n">
+        <v>783758.4434999997</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F36" t="n">
+        <v>42985.56</v>
+      </c>
+      <c r="G36" t="n">
+        <v>740772.8834999998</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F37" t="n">
+        <v>54852.3285</v>
+      </c>
+      <c r="G37" t="n">
+        <v>685920.5549999997</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2179040.2659</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2864960.8209</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3234.7108</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2861726.1101</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>22638.42761926298</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2861726.1101</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F41" t="n">
+        <v>213328.3137</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2648397.7964</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F42" t="n">
+        <v>33657.287</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2614740.5094</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F43" t="n">
+        <v>22472.0884</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2637212.5978</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>142867.4967629195</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2637212.5978</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F45" t="n">
+        <v>184274.8388</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2452937.759</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F46" t="n">
+        <v>74804.5254</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2527742.2844</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F47" t="n">
+        <v>315456.5148</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2527742.2844</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F48" t="n">
+        <v>527.0848999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2527215.1995</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F49" t="n">
+        <v>41642.7437</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2568857.9432</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20526.5002</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2548331.443</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1231531.562987434</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3779863.005987434</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>36461.703</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3743401.302987434</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F53" t="n">
+        <v>186928.8048821824</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3556472.498105251</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F54" t="n">
+        <v>22511.6153</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3533960.882805251</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F55" t="n">
+        <v>29321.0189</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3504639.863905251</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8689.939700000001</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3504639.863905251</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>44765.6694</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3459874.194505251</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>133031.622</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3592905.816505251</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4154.1415</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3597059.958005251</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F60" t="n">
+        <v>265269.1413</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3862329.099305251</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2155301.567230384</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6017630.666535635</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F62" t="n">
+        <v>93291.80286280991</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5924338.863672825</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3748.7227</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5920590.140972825</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F64" t="n">
+        <v>96918.2335</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5823671.907472825</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>471636.8029</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5352035.104572825</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F66" t="n">
+        <v>180645.1081</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5532680.212672825</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>68572.6905</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5464107.522172825</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F68" t="n">
+        <v>291352.0858</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5172755.436372826</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F69" t="n">
+        <v>78096.63310000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5250852.069472826</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F70" t="n">
+        <v>344</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5251196.069472826</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F71" t="n">
+        <v>123334.3569</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5374530.426372826</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F72" t="n">
+        <v>933872.008</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6308402.434372826</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1004546.6113</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5303855.823072826</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1.064029850746269</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L73" t="n">
+        <v>1.10134328358209</v>
+      </c>
+      <c r="M73" t="n">
         <v>1.003738317757009</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F20" t="n">
-        <v>51656.8402</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2712571.4834</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F21" t="n">
-        <v>240226.2527</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2952797.7361</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2015269.5714</v>
-      </c>
-      <c r="G22" t="n">
-        <v>937528.1646999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F23" t="n">
-        <v>70738.80039999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1008266.9651</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F24" t="n">
-        <v>185196.2095</v>
-      </c>
-      <c r="G24" t="n">
-        <v>823070.7555999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F25" t="n">
-        <v>48961.5989</v>
-      </c>
-      <c r="G25" t="n">
-        <v>774109.1566999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F26" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>774109.1566999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F27" t="n">
-        <v>13385.5692</v>
-      </c>
-      <c r="G27" t="n">
-        <v>760723.5874999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1542.5496</v>
-      </c>
-      <c r="G28" t="n">
-        <v>759181.0378999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="F29" t="n">
-        <v>363419.1007</v>
-      </c>
-      <c r="G29" t="n">
-        <v>395761.9371999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="F30" t="n">
-        <v>126972.1195</v>
-      </c>
-      <c r="G30" t="n">
-        <v>522734.0566999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>523734.0566999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F32" t="n">
-        <v>180</v>
-      </c>
-      <c r="G32" t="n">
-        <v>523554.0566999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F33" t="n">
-        <v>42356.8402</v>
-      </c>
-      <c r="G33" t="n">
-        <v>565910.8968999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>50000.0597</v>
-      </c>
-      <c r="G34" t="n">
-        <v>615910.9565999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>167847.4869</v>
-      </c>
-      <c r="G35" t="n">
-        <v>783758.4434999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F36" t="n">
-        <v>42985.56</v>
-      </c>
-      <c r="G36" t="n">
-        <v>740772.8834999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F37" t="n">
-        <v>54852.3285</v>
-      </c>
-      <c r="G37" t="n">
-        <v>685920.5549999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D38" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E38" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2179040.2659</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2864960.8209</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3234.7108</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2861726.1101</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D40" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F40" t="n">
-        <v>22638.42761926298</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2861726.1101</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F41" t="n">
-        <v>213328.3137</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2648397.7964</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D42" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F42" t="n">
-        <v>33657.287</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2614740.5094</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F43" t="n">
-        <v>22472.0884</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2637212.5978</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>142867.4967629195</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2637212.5978</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F45" t="n">
-        <v>184274.8388</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2452937.759</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F46" t="n">
-        <v>74804.5254</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2527742.2844</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F47" t="n">
-        <v>315456.5148</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2527742.2844</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F48" t="n">
-        <v>527.0848999999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2527215.1995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="C49" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D49" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F49" t="n">
-        <v>41642.7437</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2568857.9432</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C50" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20526.5002</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2548331.443</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1231531.562987434</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3779863.005987434</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C52" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F52" t="n">
-        <v>36461.703</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3743401.302987434</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F53" t="n">
-        <v>186928.8048821824</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3556472.498105251</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D54" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F54" t="n">
-        <v>22511.6153</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3533960.882805251</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F55" t="n">
-        <v>29321.0189</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3504639.863905251</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8689.939700000001</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3504639.863905251</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>44765.6694</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3459874.194505251</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>133031.622</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3592905.816505251</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D59" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4154.1415</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3597059.958005251</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C60" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F60" t="n">
-        <v>265269.1413</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3862329.099305251</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D61" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2155301.567230384</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6017630.666535635</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>6</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F62" t="n">
-        <v>93291.80286280991</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5924338.863672825</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C63" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E63" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3748.7227</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5920590.140972825</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="C64" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D64" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F64" t="n">
-        <v>96918.2335</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5823671.907472825</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>471636.8029</v>
-      </c>
-      <c r="G65" t="n">
-        <v>5352035.104572825</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F66" t="n">
-        <v>180645.1081</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5532680.212672825</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C67" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D67" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E67" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>68572.6905</v>
-      </c>
-      <c r="G67" t="n">
-        <v>5464107.522172825</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C68" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F68" t="n">
-        <v>291352.0858</v>
-      </c>
-      <c r="G68" t="n">
-        <v>5172755.436372826</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E69" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F69" t="n">
-        <v>78096.63310000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>5250852.069472826</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C70" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D70" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E70" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F70" t="n">
-        <v>344</v>
-      </c>
-      <c r="G70" t="n">
-        <v>5251196.069472826</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C71" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D71" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E71" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F71" t="n">
-        <v>123334.3569</v>
-      </c>
-      <c r="G71" t="n">
-        <v>5374530.426372826</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F72" t="n">
-        <v>933872.008</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6308402.434372826</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1004546.6113</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5303855.823072826</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2945,7 +3289,7 @@
         <v>5674565.230172827</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2978,7 +3322,7 @@
         <v>6541867.320772827</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3011,7 +3355,7 @@
         <v>7796284.290972827</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3044,7 +3388,7 @@
         <v>8301721.604172827</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3077,7 +3421,7 @@
         <v>7650662.794922819</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3110,7 +3454,7 @@
         <v>7600488.794922819</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3143,7 +3487,7 @@
         <v>7638043.704522819</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3176,7 +3520,7 @@
         <v>7691750.686322819</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3209,7 +3553,7 @@
         <v>7509794.618922819</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3242,7 +3586,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3275,7 +3619,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3308,7 +3652,7 @@
         <v>7280067.239722819</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3341,7 +3685,7 @@
         <v>7265570.283522819</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3374,7 +3718,7 @@
         <v>6609025.660522819</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3572,7 +3916,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3605,7 +3949,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3704,7 +4048,7 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3803,7 +4147,7 @@
         <v>7000979.667922819</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3836,7 +4180,7 @@
         <v>6928067.998822819</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3869,7 +4213,7 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3902,7 +4246,7 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3935,7 +4279,7 @@
         <v>6797153.184122819</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3968,7 +4312,7 @@
         <v>6809843.506722819</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4001,7 +4345,7 @@
         <v>6865806.697322819</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4034,7 +4378,7 @@
         <v>6757995.68512282</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4067,7 +4411,7 @@
         <v>6864651.92312282</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4100,7 +4444,7 @@
         <v>6865647.92312282</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4133,7 +4477,7 @@
         <v>6865551.92312282</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4166,7 +4510,7 @@
         <v>6865455.92312282</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4232,7 +4576,7 @@
         <v>7030829.298222819</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4265,7 +4609,7 @@
         <v>7015775.451122819</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4859,7 +5203,7 @@
         <v>6614310.781362819</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5255,7 +5599,7 @@
         <v>6793505.232552267</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5321,7 +5665,7 @@
         <v>6883526.859586323</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5420,7 +5764,7 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5453,7 +5797,7 @@
         <v>6911534.284851599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5486,7 +5830,7 @@
         <v>6894541.099851599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest WET.xlsx
+++ b/BackTest/2019-11-21 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7000</v>
       </c>
       <c r="G2" t="n">
-        <v>498114.1386999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>41.3109</v>
       </c>
       <c r="G3" t="n">
-        <v>498114.1386999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5.36</v>
       </c>
       <c r="I3" t="n">
         <v>5.36</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>21923.5182</v>
       </c>
       <c r="G4" t="n">
-        <v>476190.6204999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5.36</v>
       </c>
       <c r="I4" t="n">
         <v>5.36</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>109335.9397</v>
       </c>
       <c r="G5" t="n">
-        <v>366854.6807999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5.35</v>
       </c>
       <c r="I5" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J5" t="n">
         <v>5.36</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>32089.1971</v>
       </c>
       <c r="G6" t="n">
-        <v>334765.4836999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5.29</v>
       </c>
       <c r="I6" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J6" t="n">
         <v>5.36</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>46887.3592</v>
       </c>
       <c r="G7" t="n">
-        <v>334765.4836999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5.28</v>
       </c>
       <c r="I7" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J7" t="n">
         <v>5.36</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>6000</v>
       </c>
       <c r="G8" t="n">
-        <v>340765.4836999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5.28</v>
       </c>
       <c r="I8" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J8" t="n">
         <v>5.36</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>7228.9477</v>
       </c>
       <c r="G9" t="n">
-        <v>333536.5359999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5.32</v>
       </c>
       <c r="I9" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J9" t="n">
         <v>5.36</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,21 @@
         <v>170658.7519</v>
       </c>
       <c r="G10" t="n">
-        <v>162877.7840999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J10" t="n">
         <v>5.36</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +771,21 @@
         <v>28690.2022</v>
       </c>
       <c r="G11" t="n">
-        <v>162877.7840999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J11" t="n">
         <v>5.36</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +807,21 @@
         <v>39921.4638</v>
       </c>
       <c r="G12" t="n">
-        <v>202799.2478999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J12" t="n">
         <v>5.36</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +843,23 @@
         <v>46266.5915</v>
       </c>
       <c r="G13" t="n">
-        <v>202799.2478999999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5.28</v>
       </c>
       <c r="I13" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J13" t="n">
         <v>5.36</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +881,23 @@
         <v>123954.1794</v>
       </c>
       <c r="G14" t="n">
-        <v>326753.4272999999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>5.28</v>
       </c>
       <c r="I14" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J14" t="n">
         <v>5.36</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +919,23 @@
         <v>1372430.6081</v>
       </c>
       <c r="G15" t="n">
-        <v>1699184.0354</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>5.31</v>
       </c>
       <c r="I15" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="J15" t="n">
         <v>5.36</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +957,23 @@
         <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>1699384.0354</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>5.45</v>
       </c>
       <c r="I16" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="J16" t="n">
         <v>5.36</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +995,23 @@
         <v>121913.353</v>
       </c>
       <c r="G17" t="n">
-        <v>1821297.3884</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5.52</v>
       </c>
       <c r="I17" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="J17" t="n">
         <v>5.36</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1033,21 @@
         <v>167105.5694</v>
       </c>
       <c r="G18" t="n">
-        <v>1988402.9578</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J18" t="n">
         <v>5.36</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1069,21 @@
         <v>672511.6854</v>
       </c>
       <c r="G19" t="n">
-        <v>2660914.6432</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J19" t="n">
         <v>5.36</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,24 +1105,21 @@
         <v>51656.8402</v>
       </c>
       <c r="G20" t="n">
-        <v>2712571.4834</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>5.36</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1213,24 +1141,21 @@
         <v>240226.2527</v>
       </c>
       <c r="G21" t="n">
-        <v>2952797.7361</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>5.36</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,24 +1177,21 @@
         <v>2015269.5714</v>
       </c>
       <c r="G22" t="n">
-        <v>937528.1646999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>5.36</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1291,24 +1213,21 @@
         <v>70738.80039999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1008266.9651</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>5.36</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1330,24 +1249,21 @@
         <v>185196.2095</v>
       </c>
       <c r="G24" t="n">
-        <v>823070.7555999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>5.36</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,24 +1285,21 @@
         <v>48961.5989</v>
       </c>
       <c r="G25" t="n">
-        <v>774109.1566999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>5.36</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1408,24 +1321,21 @@
         <v>120000</v>
       </c>
       <c r="G26" t="n">
-        <v>774109.1566999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>5.36</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1447,24 +1357,21 @@
         <v>13385.5692</v>
       </c>
       <c r="G27" t="n">
-        <v>760723.5874999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>5.36</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,24 +1393,21 @@
         <v>1542.5496</v>
       </c>
       <c r="G28" t="n">
-        <v>759181.0378999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>5.36</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,24 +1429,21 @@
         <v>363419.1007</v>
       </c>
       <c r="G29" t="n">
-        <v>395761.9371999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>5.36</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,26 +1465,21 @@
         <v>126972.1195</v>
       </c>
       <c r="G30" t="n">
-        <v>522734.0566999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="J30" t="n">
         <v>5.36</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1605,26 +1501,21 @@
         <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>523734.0566999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="J31" t="n">
         <v>5.36</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,24 +1537,21 @@
         <v>180</v>
       </c>
       <c r="G32" t="n">
-        <v>523554.0566999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>5.36</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,24 +1573,21 @@
         <v>42356.8402</v>
       </c>
       <c r="G33" t="n">
-        <v>565910.8968999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>5.36</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,24 +1609,21 @@
         <v>50000.0597</v>
       </c>
       <c r="G34" t="n">
-        <v>615910.9565999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>5.36</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1763,24 +1645,21 @@
         <v>167847.4869</v>
       </c>
       <c r="G35" t="n">
-        <v>783758.4434999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>5.36</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,24 +1681,21 @@
         <v>42985.56</v>
       </c>
       <c r="G36" t="n">
-        <v>740772.8834999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>5.36</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,24 +1717,21 @@
         <v>54852.3285</v>
       </c>
       <c r="G37" t="n">
-        <v>685920.5549999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>5.36</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,24 +1753,21 @@
         <v>2179040.2659</v>
       </c>
       <c r="G38" t="n">
-        <v>2864960.8209</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>5.36</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1919,24 +1789,21 @@
         <v>3234.7108</v>
       </c>
       <c r="G39" t="n">
-        <v>2861726.1101</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>5.36</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,24 +1825,21 @@
         <v>22638.42761926298</v>
       </c>
       <c r="G40" t="n">
-        <v>2861726.1101</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>5.36</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,24 +1861,21 @@
         <v>213328.3137</v>
       </c>
       <c r="G41" t="n">
-        <v>2648397.7964</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>5.36</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,24 +1897,21 @@
         <v>33657.287</v>
       </c>
       <c r="G42" t="n">
-        <v>2614740.5094</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>5.36</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2075,24 +1933,21 @@
         <v>22472.0884</v>
       </c>
       <c r="G43" t="n">
-        <v>2637212.5978</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>5.36</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +1969,21 @@
         <v>142867.4967629195</v>
       </c>
       <c r="G44" t="n">
-        <v>2637212.5978</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>5.36</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2153,24 +2005,21 @@
         <v>184274.8388</v>
       </c>
       <c r="G45" t="n">
-        <v>2452937.759</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>5.36</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +2041,21 @@
         <v>74804.5254</v>
       </c>
       <c r="G46" t="n">
-        <v>2527742.2844</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>5.36</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2231,24 +2077,21 @@
         <v>315456.5148</v>
       </c>
       <c r="G47" t="n">
-        <v>2527742.2844</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>5.36</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,24 +2113,21 @@
         <v>527.0848999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>2527215.1995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>5.36</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,24 +2149,21 @@
         <v>41642.7437</v>
       </c>
       <c r="G49" t="n">
-        <v>2568857.9432</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
         <v>5.36</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,24 +2185,21 @@
         <v>20526.5002</v>
       </c>
       <c r="G50" t="n">
-        <v>2548331.443</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>5.36</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,24 +2221,21 @@
         <v>1231531.562987434</v>
       </c>
       <c r="G51" t="n">
-        <v>3779863.005987434</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>5.36</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,24 +2257,21 @@
         <v>36461.703</v>
       </c>
       <c r="G52" t="n">
-        <v>3743401.302987434</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
         <v>5.36</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +2293,23 @@
         <v>186928.8048821824</v>
       </c>
       <c r="G53" t="n">
-        <v>3556472.498105251</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
         <v>5.36</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K53" t="n">
+        <v>1.103208955223881</v>
+      </c>
       <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>1.003738317757009</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,24 +2331,15 @@
         <v>22511.6153</v>
       </c>
       <c r="G54" t="n">
-        <v>3533960.882805251</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2543,24 +2361,15 @@
         <v>29321.0189</v>
       </c>
       <c r="G55" t="n">
-        <v>3504639.863905251</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,24 +2391,15 @@
         <v>8689.939700000001</v>
       </c>
       <c r="G56" t="n">
-        <v>3504639.863905251</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2621,24 +2421,15 @@
         <v>44765.6694</v>
       </c>
       <c r="G57" t="n">
-        <v>3459874.194505251</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2660,24 +2451,15 @@
         <v>133031.622</v>
       </c>
       <c r="G58" t="n">
-        <v>3592905.816505251</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2699,24 +2481,15 @@
         <v>4154.1415</v>
       </c>
       <c r="G59" t="n">
-        <v>3597059.958005251</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,24 +2511,15 @@
         <v>265269.1413</v>
       </c>
       <c r="G60" t="n">
-        <v>3862329.099305251</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2777,24 +2541,15 @@
         <v>2155301.567230384</v>
       </c>
       <c r="G61" t="n">
-        <v>6017630.666535635</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,24 +2571,15 @@
         <v>93291.80286280991</v>
       </c>
       <c r="G62" t="n">
-        <v>5924338.863672825</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2855,24 +2601,15 @@
         <v>3748.7227</v>
       </c>
       <c r="G63" t="n">
-        <v>5920590.140972825</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2894,24 +2631,15 @@
         <v>96918.2335</v>
       </c>
       <c r="G64" t="n">
-        <v>5823671.907472825</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2933,24 +2661,15 @@
         <v>471636.8029</v>
       </c>
       <c r="G65" t="n">
-        <v>5352035.104572825</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2972,24 +2691,15 @@
         <v>180645.1081</v>
       </c>
       <c r="G66" t="n">
-        <v>5532680.212672825</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3011,24 +2721,15 @@
         <v>68572.6905</v>
       </c>
       <c r="G67" t="n">
-        <v>5464107.522172825</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,24 +2751,15 @@
         <v>291352.0858</v>
       </c>
       <c r="G68" t="n">
-        <v>5172755.436372826</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3089,24 +2781,15 @@
         <v>78096.63310000001</v>
       </c>
       <c r="G69" t="n">
-        <v>5250852.069472826</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3128,24 +2811,15 @@
         <v>344</v>
       </c>
       <c r="G70" t="n">
-        <v>5251196.069472826</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3167,24 +2841,15 @@
         <v>123334.3569</v>
       </c>
       <c r="G71" t="n">
-        <v>5374530.426372826</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3206,24 +2871,15 @@
         <v>933872.008</v>
       </c>
       <c r="G72" t="n">
-        <v>6308402.434372826</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3245,26 +2901,15 @@
         <v>1004546.6113</v>
       </c>
       <c r="G73" t="n">
-        <v>5303855.823072826</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1.10134328358209</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.003738317757009</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,18 +2931,15 @@
         <v>370709.4071</v>
       </c>
       <c r="G74" t="n">
-        <v>5674565.230172827</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3319,18 +2961,15 @@
         <v>867302.0906</v>
       </c>
       <c r="G75" t="n">
-        <v>6541867.320772827</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3352,18 +2991,15 @@
         <v>1254416.9702</v>
       </c>
       <c r="G76" t="n">
-        <v>7796284.290972827</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3385,18 +3021,15 @@
         <v>505437.3132</v>
       </c>
       <c r="G77" t="n">
-        <v>8301721.604172827</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3418,18 +3051,15 @@
         <v>651058.8092500075</v>
       </c>
       <c r="G78" t="n">
-        <v>7650662.794922819</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3451,18 +3081,15 @@
         <v>50174</v>
       </c>
       <c r="G79" t="n">
-        <v>7600488.794922819</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3484,18 +3111,15 @@
         <v>37554.9096</v>
       </c>
       <c r="G80" t="n">
-        <v>7638043.704522819</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3517,18 +3141,15 @@
         <v>53706.9818</v>
       </c>
       <c r="G81" t="n">
-        <v>7691750.686322819</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3550,18 +3171,15 @@
         <v>181956.0674</v>
       </c>
       <c r="G82" t="n">
-        <v>7509794.618922819</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3583,18 +3201,15 @@
         <v>93849.5064</v>
       </c>
       <c r="G83" t="n">
-        <v>7415945.112522819</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3616,18 +3231,15 @@
         <v>112433.7364</v>
       </c>
       <c r="G84" t="n">
-        <v>7415945.112522819</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3649,18 +3261,15 @@
         <v>135877.8728</v>
       </c>
       <c r="G85" t="n">
-        <v>7280067.239722819</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3682,18 +3291,15 @@
         <v>14496.9562</v>
       </c>
       <c r="G86" t="n">
-        <v>7265570.283522819</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3715,18 +3321,15 @@
         <v>656544.623</v>
       </c>
       <c r="G87" t="n">
-        <v>6609025.660522819</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3748,18 +3351,15 @@
         <v>171965.0224</v>
       </c>
       <c r="G88" t="n">
-        <v>6780990.68292282</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3781,18 +3381,15 @@
         <v>7646.4684</v>
       </c>
       <c r="G89" t="n">
-        <v>6780990.68292282</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3814,18 +3411,15 @@
         <v>5812.9598</v>
       </c>
       <c r="G90" t="n">
-        <v>6780990.68292282</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3847,18 +3441,15 @@
         <v>111724.8647</v>
       </c>
       <c r="G91" t="n">
-        <v>6892715.547622819</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3880,18 +3471,15 @@
         <v>96</v>
       </c>
       <c r="G92" t="n">
-        <v>6892811.547622819</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3913,18 +3501,15 @@
         <v>96</v>
       </c>
       <c r="G93" t="n">
-        <v>6892715.547622819</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3946,18 +3531,15 @@
         <v>4102.0852</v>
       </c>
       <c r="G94" t="n">
-        <v>6892715.547622819</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3979,18 +3561,15 @@
         <v>2545.7873</v>
       </c>
       <c r="G95" t="n">
-        <v>6895261.334922819</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4012,18 +3591,15 @@
         <v>17726.9119</v>
       </c>
       <c r="G96" t="n">
-        <v>6895261.334922819</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4045,18 +3621,15 @@
         <v>999.7599</v>
       </c>
       <c r="G97" t="n">
-        <v>6895261.334922819</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4078,18 +3651,15 @@
         <v>92242.7939</v>
       </c>
       <c r="G98" t="n">
-        <v>6803018.541022819</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4111,18 +3681,15 @@
         <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>6803518.541022819</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4144,18 +3711,15 @@
         <v>197461.1269</v>
       </c>
       <c r="G100" t="n">
-        <v>7000979.667922819</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,18 +3741,15 @@
         <v>72911.6691</v>
       </c>
       <c r="G101" t="n">
-        <v>6928067.998822819</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4210,18 +3771,15 @@
         <v>3344.7457</v>
       </c>
       <c r="G102" t="n">
-        <v>6924723.25312282</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4243,18 +3801,15 @@
         <v>16317.904</v>
       </c>
       <c r="G103" t="n">
-        <v>6941041.15712282</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4276,18 +3831,15 @@
         <v>143887.973</v>
       </c>
       <c r="G104" t="n">
-        <v>6797153.184122819</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4309,18 +3861,15 @@
         <v>12690.3226</v>
       </c>
       <c r="G105" t="n">
-        <v>6809843.506722819</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4342,18 +3891,15 @@
         <v>55963.1906</v>
       </c>
       <c r="G106" t="n">
-        <v>6865806.697322819</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4375,18 +3921,15 @@
         <v>107811.0122</v>
       </c>
       <c r="G107" t="n">
-        <v>6757995.68512282</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4408,18 +3951,15 @@
         <v>106656.238</v>
       </c>
       <c r="G108" t="n">
-        <v>6864651.92312282</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4441,18 +3981,15 @@
         <v>996</v>
       </c>
       <c r="G109" t="n">
-        <v>6865647.92312282</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4474,18 +4011,15 @@
         <v>96</v>
       </c>
       <c r="G110" t="n">
-        <v>6865551.92312282</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4507,18 +4041,15 @@
         <v>96</v>
       </c>
       <c r="G111" t="n">
-        <v>6865455.92312282</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4540,18 +4071,15 @@
         <v>414625.9944</v>
       </c>
       <c r="G112" t="n">
-        <v>7280081.91752282</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4573,18 +4101,15 @@
         <v>249252.6193</v>
       </c>
       <c r="G113" t="n">
-        <v>7030829.298222819</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4606,18 +4131,15 @@
         <v>15053.8471</v>
       </c>
       <c r="G114" t="n">
-        <v>7015775.451122819</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4639,18 +4161,15 @@
         <v>4547.7765</v>
       </c>
       <c r="G115" t="n">
-        <v>7011227.67462282</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4672,18 +4191,15 @@
         <v>208697.5981</v>
       </c>
       <c r="G116" t="n">
-        <v>6802530.07652282</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4705,18 +4221,15 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>6802530.07652282</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4738,18 +4251,15 @@
         <v>6100</v>
       </c>
       <c r="G118" t="n">
-        <v>6808630.07652282</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4771,18 +4281,15 @@
         <v>15148.4633</v>
       </c>
       <c r="G119" t="n">
-        <v>6823778.53982282</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4804,18 +4311,15 @@
         <v>190.8605</v>
       </c>
       <c r="G120" t="n">
-        <v>6823778.53982282</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4837,18 +4341,15 @@
         <v>190.8605</v>
       </c>
       <c r="G121" t="n">
-        <v>6823587.679322819</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4870,18 +4371,15 @@
         <v>2195</v>
       </c>
       <c r="G122" t="n">
-        <v>6825782.679322819</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4903,18 +4401,15 @@
         <v>19995.51104</v>
       </c>
       <c r="G123" t="n">
-        <v>6845778.190362819</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4936,18 +4431,15 @@
         <v>200</v>
       </c>
       <c r="G124" t="n">
-        <v>6845778.190362819</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4969,18 +4461,15 @@
         <v>205513.9538</v>
       </c>
       <c r="G125" t="n">
-        <v>6845778.190362819</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5002,18 +4491,15 @@
         <v>162313.6898</v>
       </c>
       <c r="G126" t="n">
-        <v>6683464.50056282</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5035,18 +4521,15 @@
         <v>81028.4611</v>
       </c>
       <c r="G127" t="n">
-        <v>6602436.03946282</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5068,18 +4551,15 @@
         <v>157.7281</v>
       </c>
       <c r="G128" t="n">
-        <v>6602593.76756282</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5101,18 +4581,15 @@
         <v>180</v>
       </c>
       <c r="G129" t="n">
-        <v>6602413.76756282</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5134,18 +4611,15 @@
         <v>12082.4342</v>
       </c>
       <c r="G130" t="n">
-        <v>6614496.20176282</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5167,18 +4641,15 @@
         <v>185.4204</v>
       </c>
       <c r="G131" t="n">
-        <v>6614496.20176282</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5200,18 +4671,15 @@
         <v>185.4204</v>
       </c>
       <c r="G132" t="n">
-        <v>6614310.781362819</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5233,18 +4701,15 @@
         <v>26646.0995</v>
       </c>
       <c r="G133" t="n">
-        <v>6640956.880862819</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5266,18 +4731,15 @@
         <v>73079.7429</v>
       </c>
       <c r="G134" t="n">
-        <v>6567877.137962819</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5299,18 +4761,15 @@
         <v>1240.5106</v>
       </c>
       <c r="G135" t="n">
-        <v>6566636.627362819</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5332,18 +4791,15 @@
         <v>42888</v>
       </c>
       <c r="G136" t="n">
-        <v>6609524.627362819</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5365,18 +4821,15 @@
         <v>60009</v>
       </c>
       <c r="G137" t="n">
-        <v>6669533.627362819</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5398,18 +4851,15 @@
         <v>468858.1723</v>
       </c>
       <c r="G138" t="n">
-        <v>7138391.799662819</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5431,18 +4881,15 @@
         <v>27956.44891122278</v>
       </c>
       <c r="G139" t="n">
-        <v>7110435.350751597</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5464,18 +4911,15 @@
         <v>61018.515</v>
       </c>
       <c r="G140" t="n">
-        <v>7049416.835751597</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5497,18 +4941,15 @@
         <v>290942.1942</v>
       </c>
       <c r="G141" t="n">
-        <v>6758474.641551597</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5530,18 +4971,15 @@
         <v>88</v>
       </c>
       <c r="G142" t="n">
-        <v>6758562.641551597</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5563,18 +5001,15 @@
         <v>20204.8736</v>
       </c>
       <c r="G143" t="n">
-        <v>6738357.767951597</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5596,18 +5031,15 @@
         <v>55147.4646006689</v>
       </c>
       <c r="G144" t="n">
-        <v>6793505.232552267</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5629,18 +5061,15 @@
         <v>90221.62703405565</v>
       </c>
       <c r="G145" t="n">
-        <v>6883726.859586323</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5662,18 +5091,15 @@
         <v>200</v>
       </c>
       <c r="G146" t="n">
-        <v>6883526.859586323</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5695,18 +5121,15 @@
         <v>27829.95016527546</v>
       </c>
       <c r="G147" t="n">
-        <v>6911356.809751598</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5728,18 +5151,15 @@
         <v>178.6613</v>
       </c>
       <c r="G148" t="n">
-        <v>6911535.471051598</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5761,18 +5181,15 @@
         <v>178.6613</v>
       </c>
       <c r="G149" t="n">
-        <v>6911356.809751598</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5794,18 +5211,15 @@
         <v>177.4751</v>
       </c>
       <c r="G150" t="n">
-        <v>6911534.284851599</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5827,18 +5241,15 @@
         <v>16993.185</v>
       </c>
       <c r="G151" t="n">
-        <v>6894541.099851599</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5860,18 +5271,15 @@
         <v>11015.4264</v>
       </c>
       <c r="G152" t="n">
-        <v>6883525.673451599</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5893,18 +5301,15 @@
         <v>141874.2334</v>
       </c>
       <c r="G153" t="n">
-        <v>7025399.906851599</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5926,18 +5331,15 @@
         <v>300502.9826</v>
       </c>
       <c r="G154" t="n">
-        <v>6724896.924251599</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5959,18 +5361,15 @@
         <v>139818.6097</v>
       </c>
       <c r="G155" t="n">
-        <v>6724896.924251599</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5992,18 +5391,15 @@
         <v>80000</v>
       </c>
       <c r="G156" t="n">
-        <v>6724896.924251599</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6025,18 +5421,15 @@
         <v>37208.3745</v>
       </c>
       <c r="G157" t="n">
-        <v>6724896.924251599</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6058,18 +5451,15 @@
         <v>19043.248</v>
       </c>
       <c r="G158" t="n">
-        <v>6743940.172251599</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6091,18 +5481,15 @@
         <v>29351.6457</v>
       </c>
       <c r="G159" t="n">
-        <v>6743940.172251599</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6124,18 +5511,15 @@
         <v>12277.1681</v>
       </c>
       <c r="G160" t="n">
-        <v>6731663.004151599</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6157,18 +5541,15 @@
         <v>13622.0252</v>
       </c>
       <c r="G161" t="n">
-        <v>6718040.978951599</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6190,18 +5571,15 @@
         <v>18032.8178</v>
       </c>
       <c r="G162" t="n">
-        <v>6718040.978951599</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6223,18 +5601,15 @@
         <v>14885.8934</v>
       </c>
       <c r="G163" t="n">
-        <v>6703155.085551598</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6256,18 +5631,15 @@
         <v>34299.9094</v>
       </c>
       <c r="G164" t="n">
-        <v>6668855.176151598</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6289,18 +5661,15 @@
         <v>96404.1326</v>
       </c>
       <c r="G165" t="n">
-        <v>6572451.043551598</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6322,18 +5691,15 @@
         <v>17471.4684</v>
       </c>
       <c r="G166" t="n">
-        <v>6554979.575151598</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6355,18 +5721,15 @@
         <v>16034.6244</v>
       </c>
       <c r="G167" t="n">
-        <v>6554979.575151598</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6388,18 +5751,15 @@
         <v>44788.2532</v>
       </c>
       <c r="G168" t="n">
-        <v>6510191.321951598</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6421,18 +5781,15 @@
         <v>31384.9168</v>
       </c>
       <c r="G169" t="n">
-        <v>6510191.321951598</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6454,18 +5811,15 @@
         <v>504.4257</v>
       </c>
       <c r="G170" t="n">
-        <v>6510695.747651597</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6487,18 +5841,15 @@
         <v>355</v>
       </c>
       <c r="G171" t="n">
-        <v>6511050.747651597</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6520,18 +5871,15 @@
         <v>185.0813</v>
       </c>
       <c r="G172" t="n">
-        <v>6511235.828951597</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6553,18 +5901,15 @@
         <v>16655</v>
       </c>
       <c r="G173" t="n">
-        <v>6511235.828951597</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6586,18 +5931,15 @@
         <v>265476.8538</v>
       </c>
       <c r="G174" t="n">
-        <v>6245758.975151598</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6619,18 +5961,15 @@
         <v>62794.3667</v>
       </c>
       <c r="G175" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6652,18 +5991,15 @@
         <v>18972.5409</v>
       </c>
       <c r="G176" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6685,18 +6021,15 @@
         <v>12420.6859</v>
       </c>
       <c r="G177" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6718,18 +6051,15 @@
         <v>157152.8642</v>
       </c>
       <c r="G178" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6751,18 +6081,15 @@
         <v>157152.8642</v>
       </c>
       <c r="G179" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6784,18 +6111,15 @@
         <v>4517.4215</v>
       </c>
       <c r="G180" t="n">
-        <v>6308553.341851598</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6817,18 +6141,15 @@
         <v>139549.6728</v>
       </c>
       <c r="G181" t="n">
-        <v>6169003.669051598</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6850,18 +6171,15 @@
         <v>193.1925</v>
       </c>
       <c r="G182" t="n">
-        <v>6169196.861551598</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6883,18 +6201,15 @@
         <v>30456.8933</v>
       </c>
       <c r="G183" t="n">
-        <v>6138739.968251598</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6916,18 +6231,15 @@
         <v>400</v>
       </c>
       <c r="G184" t="n">
-        <v>6139139.968251598</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6949,18 +6261,15 @@
         <v>2562.5035</v>
       </c>
       <c r="G185" t="n">
-        <v>6141702.471751598</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6982,18 +6291,15 @@
         <v>166313.7304</v>
       </c>
       <c r="G186" t="n">
-        <v>6308016.202151597</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7015,18 +6321,15 @@
         <v>2401.5817</v>
       </c>
       <c r="G187" t="n">
-        <v>6310417.783851597</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7048,18 +6351,15 @@
         <v>2492.9143</v>
       </c>
       <c r="G188" t="n">
-        <v>6307924.869551597</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7081,18 +6381,15 @@
         <v>8099.3746</v>
       </c>
       <c r="G189" t="n">
-        <v>6316024.244151597</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7114,18 +6411,15 @@
         <v>36449.0594</v>
       </c>
       <c r="G190" t="n">
-        <v>6352473.303551597</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7147,18 +6441,15 @@
         <v>52780.9406</v>
       </c>
       <c r="G191" t="n">
-        <v>6352473.303551597</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7180,18 +6471,15 @@
         <v>68841.69289999999</v>
       </c>
       <c r="G192" t="n">
-        <v>6421314.996451597</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7213,18 +6501,15 @@
         <v>240396.776</v>
       </c>
       <c r="G193" t="n">
-        <v>6661711.772451596</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7246,18 +6531,15 @@
         <v>93089.6464</v>
       </c>
       <c r="G194" t="n">
-        <v>6754801.418851596</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7279,18 +6561,15 @@
         <v>271648.7797</v>
       </c>
       <c r="G195" t="n">
-        <v>6754801.418851596</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7312,18 +6591,15 @@
         <v>9734046.3073</v>
       </c>
       <c r="G196" t="n">
-        <v>-2979244.888448403</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7345,18 +6621,15 @@
         <v>28371647.4522</v>
       </c>
       <c r="G197" t="n">
-        <v>-2979244.888448403</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7378,18 +6651,15 @@
         <v>27300000</v>
       </c>
       <c r="G198" t="n">
-        <v>-30279244.8884484</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7411,18 +6681,15 @@
         <v>26520148.3071</v>
       </c>
       <c r="G199" t="n">
-        <v>-3759096.581348401</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7444,18 +6711,15 @@
         <v>105813.3191</v>
       </c>
       <c r="G200" t="n">
-        <v>-3864909.900448401</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7477,18 +6741,15 @@
         <v>24561</v>
       </c>
       <c r="G201" t="n">
-        <v>-3889470.900448401</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7510,18 +6771,15 @@
         <v>198662.1222</v>
       </c>
       <c r="G202" t="n">
-        <v>-4088133.022648401</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7543,18 +6801,15 @@
         <v>9600000</v>
       </c>
       <c r="G203" t="n">
-        <v>5511866.977351599</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7576,18 +6831,15 @@
         <v>37300000</v>
       </c>
       <c r="G204" t="n">
-        <v>5511866.977351599</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7609,18 +6861,15 @@
         <v>44000000</v>
       </c>
       <c r="G205" t="n">
-        <v>5511866.977351599</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7642,18 +6891,15 @@
         <v>49500000</v>
       </c>
       <c r="G206" t="n">
-        <v>5511866.977351599</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7675,18 +6921,15 @@
         <v>57442.0179</v>
       </c>
       <c r="G207" t="n">
-        <v>5454424.959451599</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7708,18 +6951,15 @@
         <v>5000</v>
       </c>
       <c r="G208" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7741,18 +6981,15 @@
         <v>400</v>
       </c>
       <c r="G209" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7774,18 +7011,15 @@
         <v>88.98999999999999</v>
       </c>
       <c r="G210" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7807,18 +7041,15 @@
         <v>20011.01</v>
       </c>
       <c r="G211" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7840,18 +7071,15 @@
         <v>5000</v>
       </c>
       <c r="G212" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7873,18 +7101,15 @@
         <v>5000</v>
       </c>
       <c r="G213" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7906,18 +7131,15 @@
         <v>5000</v>
       </c>
       <c r="G214" t="n">
-        <v>5459424.959451599</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7939,18 +7161,15 @@
         <v>112966.1753</v>
       </c>
       <c r="G215" t="n">
-        <v>5346458.784151599</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7972,18 +7191,15 @@
         <v>311512.9516</v>
       </c>
       <c r="G216" t="n">
-        <v>5034945.832551599</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8005,18 +7221,15 @@
         <v>20000</v>
       </c>
       <c r="G217" t="n">
-        <v>5034945.832551599</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8038,18 +7251,15 @@
         <v>8211.616900000001</v>
       </c>
       <c r="G218" t="n">
-        <v>5026734.215651599</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8071,18 +7281,15 @@
         <v>491543.1312</v>
       </c>
       <c r="G219" t="n">
-        <v>4535191.084451599</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8104,18 +7311,15 @@
         <v>40268.5437</v>
       </c>
       <c r="G220" t="n">
-        <v>4535191.084451599</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8137,18 +7341,15 @@
         <v>64867.234</v>
       </c>
       <c r="G221" t="n">
-        <v>4470323.850451599</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8170,18 +7371,15 @@
         <v>63554.3239</v>
       </c>
       <c r="G222" t="n">
-        <v>4406769.526551599</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8203,18 +7401,15 @@
         <v>2678.667</v>
       </c>
       <c r="G223" t="n">
-        <v>4409448.193551599</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8236,18 +7431,15 @@
         <v>14982.568</v>
       </c>
       <c r="G224" t="n">
-        <v>4394465.625551599</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8269,18 +7461,15 @@
         <v>17491.993</v>
       </c>
       <c r="G225" t="n">
-        <v>4411957.618551599</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8302,18 +7491,15 @@
         <v>233495.7234</v>
       </c>
       <c r="G226" t="n">
-        <v>4178461.895151599</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8335,18 +7521,15 @@
         <v>438.3952</v>
       </c>
       <c r="G227" t="n">
-        <v>4178900.290351599</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8368,18 +7551,15 @@
         <v>107850.2358</v>
       </c>
       <c r="G228" t="n">
-        <v>4071050.054551599</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8401,18 +7581,15 @@
         <v>218264.7333</v>
       </c>
       <c r="G229" t="n">
-        <v>3852785.321251599</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8434,18 +7611,15 @@
         <v>983834.211</v>
       </c>
       <c r="G230" t="n">
-        <v>2868951.110251599</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8467,18 +7641,15 @@
         <v>359</v>
       </c>
       <c r="G231" t="n">
-        <v>2869310.110251599</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8500,18 +7671,15 @@
         <v>406710.5064</v>
       </c>
       <c r="G232" t="n">
-        <v>2462599.603851599</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8533,18 +7701,15 @@
         <v>839411.8964</v>
       </c>
       <c r="G233" t="n">
-        <v>3302011.500251599</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8566,18 +7731,15 @@
         <v>38168.6882</v>
       </c>
       <c r="G234" t="n">
-        <v>3340180.188451599</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8599,18 +7761,15 @@
         <v>1258.5925</v>
       </c>
       <c r="G235" t="n">
-        <v>3340180.188451599</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8632,18 +7791,15 @@
         <v>22363.5548</v>
       </c>
       <c r="G236" t="n">
-        <v>3317816.633651599</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8665,18 +7821,15 @@
         <v>373738.4903</v>
       </c>
       <c r="G237" t="n">
-        <v>2944078.143351599</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8698,18 +7851,15 @@
         <v>101772.4629</v>
       </c>
       <c r="G238" t="n">
-        <v>3045850.606251599</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8731,18 +7881,15 @@
         <v>192</v>
       </c>
       <c r="G239" t="n">
-        <v>3045658.606251599</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8764,18 +7911,15 @@
         <v>191840.5038</v>
       </c>
       <c r="G240" t="n">
-        <v>3237499.110051599</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8797,18 +7941,15 @@
         <v>84424.0298</v>
       </c>
       <c r="G241" t="n">
-        <v>3153075.080251599</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8830,18 +7971,15 @@
         <v>96</v>
       </c>
       <c r="G242" t="n">
-        <v>3153075.080251599</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8863,18 +8001,15 @@
         <v>189896.0705</v>
       </c>
       <c r="G243" t="n">
-        <v>2963179.009751599</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8896,18 +8031,15 @@
         <v>294963.716</v>
       </c>
       <c r="G244" t="n">
-        <v>2668215.293751599</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8929,18 +8061,15 @@
         <v>110000</v>
       </c>
       <c r="G245" t="n">
-        <v>2558215.293751599</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8962,18 +8091,15 @@
         <v>33369.449</v>
       </c>
       <c r="G246" t="n">
-        <v>2591584.742751599</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8995,18 +8121,15 @@
         <v>933.5189</v>
       </c>
       <c r="G247" t="n">
-        <v>2590651.223851599</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9028,18 +8151,15 @@
         <v>265486.7256</v>
       </c>
       <c r="G248" t="n">
-        <v>2325164.498251599</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9061,18 +8181,15 @@
         <v>9287.1834</v>
       </c>
       <c r="G249" t="n">
-        <v>2334451.681651599</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9094,18 +8211,15 @@
         <v>10000</v>
       </c>
       <c r="G250" t="n">
-        <v>2334451.681651599</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9127,18 +8241,15 @@
         <v>10000</v>
       </c>
       <c r="G251" t="n">
-        <v>2334451.681651599</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9160,18 +8271,15 @@
         <v>10000</v>
       </c>
       <c r="G252" t="n">
-        <v>2334451.681651599</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9193,18 +8301,15 @@
         <v>30000</v>
       </c>
       <c r="G253" t="n">
-        <v>2334451.681651599</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9226,18 +8331,15 @@
         <v>180</v>
       </c>
       <c r="G254" t="n">
-        <v>2334271.681651599</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9259,18 +8361,15 @@
         <v>15023.9175</v>
       </c>
       <c r="G255" t="n">
-        <v>2334271.681651599</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9292,18 +8391,15 @@
         <v>551496.3621</v>
       </c>
       <c r="G256" t="n">
-        <v>2885768.043751599</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9325,18 +8421,15 @@
         <v>216478.7025</v>
       </c>
       <c r="G257" t="n">
-        <v>3102246.746251599</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9358,18 +8451,15 @@
         <v>8803.9848</v>
       </c>
       <c r="G258" t="n">
-        <v>3093442.761451599</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9391,18 +8481,15 @@
         <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>3103442.761451599</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9424,18 +8511,15 @@
         <v>5113.9175</v>
       </c>
       <c r="G260" t="n">
-        <v>3103442.761451599</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9457,18 +8541,15 @@
         <v>1425768.6559</v>
       </c>
       <c r="G261" t="n">
-        <v>1677674.105551599</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9490,18 +8571,15 @@
         <v>10810</v>
       </c>
       <c r="G262" t="n">
-        <v>1688484.105551599</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9523,18 +8601,15 @@
         <v>10800</v>
       </c>
       <c r="G263" t="n">
-        <v>1688484.105551599</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9556,18 +8631,15 @@
         <v>6000</v>
       </c>
       <c r="G264" t="n">
-        <v>1694484.105551599</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9589,18 +8661,15 @@
         <v>12559.4655</v>
       </c>
       <c r="G265" t="n">
-        <v>1681924.640051599</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9622,18 +8691,15 @@
         <v>3901.886</v>
       </c>
       <c r="G266" t="n">
-        <v>1678022.754051599</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9655,18 +8721,15 @@
         <v>10000</v>
       </c>
       <c r="G267" t="n">
-        <v>1678022.754051599</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9688,18 +8751,15 @@
         <v>33949.5233</v>
       </c>
       <c r="G268" t="n">
-        <v>1644073.230751599</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9721,18 +8781,15 @@
         <v>39505.7771</v>
       </c>
       <c r="G269" t="n">
-        <v>1604567.453651599</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9754,18 +8811,15 @@
         <v>3000</v>
       </c>
       <c r="G270" t="n">
-        <v>1607567.453651599</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9787,18 +8841,15 @@
         <v>52932.1471</v>
       </c>
       <c r="G271" t="n">
-        <v>1554635.306551599</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9820,18 +8871,15 @@
         <v>398764.7169</v>
       </c>
       <c r="G272" t="n">
-        <v>1155870.5896516</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9853,18 +8901,15 @@
         <v>84061.0254</v>
       </c>
       <c r="G273" t="n">
-        <v>1071809.5642516</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9886,18 +8931,15 @@
         <v>9174.663</v>
       </c>
       <c r="G274" t="n">
-        <v>1080984.2272516</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9919,18 +8961,15 @@
         <v>0.0007</v>
       </c>
       <c r="G275" t="n">
-        <v>1080984.2272516</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9952,18 +8991,15 @@
         <v>506426.8174</v>
       </c>
       <c r="G276" t="n">
-        <v>1587411.0446516</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9985,18 +9021,15 @@
         <v>637063.1877</v>
       </c>
       <c r="G277" t="n">
-        <v>2224474.2323516</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10018,18 +9051,15 @@
         <v>8757.025</v>
       </c>
       <c r="G278" t="n">
-        <v>2233231.2573516</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10051,18 +9081,15 @@
         <v>68414.2677</v>
       </c>
       <c r="G279" t="n">
-        <v>2164816.989651599</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10084,18 +9111,15 @@
         <v>367021.2805</v>
       </c>
       <c r="G280" t="n">
-        <v>1797795.7091516</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10117,18 +9141,15 @@
         <v>45164.822</v>
       </c>
       <c r="G281" t="n">
-        <v>1797795.7091516</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10150,18 +9171,15 @@
         <v>54381.1261</v>
       </c>
       <c r="G282" t="n">
-        <v>1743414.5830516</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10183,18 +9201,15 @@
         <v>14901.5507</v>
       </c>
       <c r="G283" t="n">
-        <v>1743414.5830516</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10216,18 +9231,15 @@
         <v>18424.958</v>
       </c>
       <c r="G284" t="n">
-        <v>1761839.5410516</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10249,18 +9261,15 @@
         <v>240720.8998</v>
       </c>
       <c r="G285" t="n">
-        <v>1521118.6412516</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10282,18 +9291,15 @@
         <v>156868.8282</v>
       </c>
       <c r="G286" t="n">
-        <v>1521118.6412516</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10315,18 +9321,15 @@
         <v>8132.5773</v>
       </c>
       <c r="G287" t="n">
-        <v>1521118.6412516</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10348,18 +9351,15 @@
         <v>24057.4506</v>
       </c>
       <c r="G288" t="n">
-        <v>1497061.1906516</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10381,18 +9381,15 @@
         <v>370615.4037</v>
       </c>
       <c r="G289" t="n">
-        <v>1126445.7869516</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10414,18 +9411,15 @@
         <v>1665.1485</v>
       </c>
       <c r="G290" t="n">
-        <v>1128110.9354516</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10447,18 +9441,15 @@
         <v>37453.3735</v>
       </c>
       <c r="G291" t="n">
-        <v>1165564.3089516</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10480,18 +9471,15 @@
         <v>62552.8604</v>
       </c>
       <c r="G292" t="n">
-        <v>1228117.169351599</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10513,18 +9501,15 @@
         <v>176000</v>
       </c>
       <c r="G293" t="n">
-        <v>1404117.169351599</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10546,18 +9531,15 @@
         <v>487870.4562</v>
       </c>
       <c r="G294" t="n">
-        <v>1891987.6255516</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10579,18 +9561,15 @@
         <v>20053.1054</v>
       </c>
       <c r="G295" t="n">
-        <v>1912040.7309516</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10612,18 +9591,15 @@
         <v>200057.451</v>
       </c>
       <c r="G296" t="n">
-        <v>1912040.7309516</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10645,18 +9621,15 @@
         <v>12231.7391</v>
       </c>
       <c r="G297" t="n">
-        <v>1912040.7309516</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10678,18 +9651,15 @@
         <v>48572.0527</v>
       </c>
       <c r="G298" t="n">
-        <v>1960612.7836516</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10711,18 +9681,15 @@
         <v>35617.3848</v>
       </c>
       <c r="G299" t="n">
-        <v>1960612.7836516</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
